--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="370">
   <si>
     <t>Property</t>
   </si>
@@ -593,10 +593,10 @@
     <t>Patient.gender</t>
   </si>
   <si>
-    <t>male | female | other | unknown</t>
-  </si>
-  <si>
-    <t>Administrative Gender - the gender that the patient is considered to have for administration and record keeping purposes.</t>
+    <t>Kjønn</t>
+  </si>
+  <si>
+    <t>Pasientens kjønn skal oppgis sammen med fødselsdato hvis det ikke finnes pasient-ID.</t>
   </si>
   <si>
     <t>The gender might not match the biological sex as determined by genetics or the individual's preferred identification. Note that for both humans and particularly animals, there are other legitimate possibilities than male and female, though the vast majority of systems and contexts only support male and female.  Systems providing decision support or enforcing business rules should ideally do this on the basis of Observations dealing with the specific sex or gender aspect of interest (anatomical, chromosomal, social, etc.)  However, because these observations are infrequently recorded, defaulting to the administrative gender is common practice.  Where such defaulting occurs, rule enforcement should allow for the variation between administrative and biological, chromosomal and other gender aspects.  For example, an alert about a hysterectomy on a male should be handled as a warning or overridable error, not a "hard" error.  See the Patient Gender and Sex section for additional information about communicating patient gender and sex.</t>
@@ -630,10 +630,10 @@
 </t>
   </si>
   <si>
-    <t>The date of birth for the individual</t>
-  </si>
-  <si>
-    <t>The date of birth for the individual.</t>
+    <t>Fødselsdato</t>
+  </si>
+  <si>
+    <t>Pasientens fødselsdato skal oppgis sammen med kjønn hvis det ikke finnes pasient-ID.</t>
   </si>
   <si>
     <t>At least an estimated year should be provided as a guess if the real DOB is unknown  There is a standard extension "patient-birthTime" available that should be used where Time is required (such as in maternity/infant care systems).</t>
@@ -932,6 +932,9 @@
   </si>
   <si>
     <t>Patient.contact.gender</t>
+  </si>
+  <si>
+    <t>male | female | other | unknown</t>
   </si>
   <si>
     <t>Administrative Gender - the gender that the contact person is considered to have for administration and record keeping purposes.</t>
@@ -2729,10 +2732,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>81</v>
@@ -2973,7 +2976,7 @@
         <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>81</v>
@@ -3211,7 +3214,7 @@
         <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>81</v>
@@ -3330,7 +3333,7 @@
         <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>81</v>
@@ -4994,14 +4997,14 @@
         <v>109</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>184</v>
+        <v>293</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>81</v>
@@ -5074,7 +5077,7 @@
         <v>81</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>81</v>
@@ -5082,10 +5085,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5108,17 +5111,17 @@
         <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5167,7 +5170,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5176,13 +5179,13 @@
         <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>163</v>
@@ -5191,7 +5194,7 @@
         <v>81</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>81</v>
@@ -5199,10 +5202,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5225,13 +5228,13 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5282,7 +5285,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5297,7 +5300,7 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>163</v>
@@ -5314,10 +5317,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5343,16 +5346,16 @@
         <v>249</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -5401,7 +5404,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5416,10 +5419,10 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>81</v>
@@ -5433,10 +5436,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5548,10 +5551,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5665,10 +5668,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5784,10 +5787,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5813,16 +5816,16 @@
         <v>222</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -5871,7 +5874,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>89</v>
@@ -5886,16 +5889,16 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>81</v>
@@ -5903,10 +5906,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5932,16 +5935,16 @@
         <v>156</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -5990,7 +5993,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6005,16 +6008,16 @@
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>81</v>
@@ -6022,14 +6025,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6048,16 +6051,16 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6107,7 +6110,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6122,7 +6125,7 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>163</v>
@@ -6131,7 +6134,7 @@
         <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>81</v>
@@ -6139,10 +6142,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6165,19 +6168,19 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6226,7 +6229,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6241,10 +6244,10 @@
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>81</v>
@@ -6258,10 +6261,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6287,16 +6290,16 @@
         <v>249</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6345,7 +6348,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6360,7 +6363,7 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>163</v>
@@ -6377,10 +6380,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6492,10 +6495,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6609,10 +6612,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6728,10 +6731,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6754,16 +6757,16 @@
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6813,7 +6816,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>89</v>
@@ -6837,7 +6840,7 @@
         <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
@@ -6845,10 +6848,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6874,10 +6877,10 @@
         <v>109</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6907,10 +6910,10 @@
         <v>188</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>81</v>
@@ -6928,7 +6931,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>89</v>
@@ -6943,7 +6946,7 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>163</v>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$72</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="447">
   <si>
     <t>Property</t>
   </si>
@@ -488,6 +488,13 @@
     <t>Patients are almost always assigned specific numerical identifiers.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:code}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -498,6 +505,272 @@
   </si>
   <si>
     <t>PID-3</t>
+  </si>
+  <si>
+    <t>Patient.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Patient.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Patient.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>Patient.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>Patient.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Patient.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>Patient.identifier:FNR</t>
+  </si>
+  <si>
+    <t>FNR</t>
+  </si>
+  <si>
+    <t>Patient.identifier:FNR.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier:FNR.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier:FNR.use</t>
+  </si>
+  <si>
+    <t>Patient.identifier:FNR.type</t>
+  </si>
+  <si>
+    <t>Patient.identifier:FNR.system</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.578.1.12.4.1.4.1</t>
+  </si>
+  <si>
+    <t>Patient.identifier:FNR.value</t>
+  </si>
+  <si>
+    <t>Patient.identifier:FNR.period</t>
+  </si>
+  <si>
+    <t>Patient.identifier:FNR.assigner</t>
+  </si>
+  <si>
+    <t>Patient.identifier:DNR</t>
+  </si>
+  <si>
+    <t>DNR</t>
+  </si>
+  <si>
+    <t>Patient.identifier:DNR.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier:DNR.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier:DNR.use</t>
+  </si>
+  <si>
+    <t>Patient.identifier:DNR.type</t>
+  </si>
+  <si>
+    <t>Patient.identifier:DNR.system</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.578.1.12.4.1.4.2</t>
+  </si>
+  <si>
+    <t>Patient.identifier:DNR.value</t>
+  </si>
+  <si>
+    <t>Patient.identifier:DNR.period</t>
+  </si>
+  <si>
+    <t>Patient.identifier:DNR.assigner</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -528,9 +801,6 @@
     <t>statusCode</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>FiveWs.status</t>
   </si>
   <si>
@@ -605,9 +875,6 @@
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>The gender of a person used for administrative purposes.</t>
   </si>
   <si>
@@ -710,10 +977,6 @@
     <t>Patient.maritalStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Marital (civil) status of a patient</t>
   </si>
   <si>
@@ -721,9 +984,6 @@
   </si>
   <si>
     <t>Most, if not all systems capture it.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>The domestic partnership status of a person.</t>
@@ -823,26 +1083,7 @@
     <t>Patient.contact.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Patient.contact.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Patient.contact.modifierExtension</t>
@@ -949,10 +1190,6 @@
     <t>Patient.contact.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
     <t>Organization that is associated with the contact</t>
   </si>
   <si>
@@ -973,10 +1210,6 @@
   </si>
   <si>
     <t>Patient.contact.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
   </si>
   <si>
     <t>The period during which this contact person or organization is valid to be contacted relating to this patient</t>
@@ -1492,7 +1725,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO46"/>
+  <dimension ref="A1:AO72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1520,16 +1753,16 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="80.89453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="51.921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2732,13 +2965,13 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>81</v>
@@ -2794,16 +3027,14 @@
         <v>81</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>146</v>
@@ -2821,16 +3052,16 @@
         <v>101</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>81</v>
@@ -2838,10 +3069,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2858,76 +3089,70 @@
         <v>81</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O12" t="s" s="2">
         <v>160</v>
       </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q12" t="s" s="2">
+      <c r="Q12" s="2"/>
+      <c r="R12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -2939,16 +3164,16 @@
         <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>162</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>81</v>
@@ -2959,14 +3184,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2982,23 +3207,21 @@
         <v>81</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>81</v>
       </c>
@@ -3034,19 +3257,19 @@
         <v>81</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3058,19 +3281,19 @@
         <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>81</v>
@@ -3078,10 +3301,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3092,31 +3315,31 @@
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>81</v>
@@ -3141,13 +3364,13 @@
         <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>81</v>
@@ -3165,13 +3388,13 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>81</v>
@@ -3180,16 +3403,16 @@
         <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>81</v>
@@ -3197,10 +3420,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3214,7 +3437,7 @@
         <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>81</v>
@@ -3223,19 +3446,19 @@
         <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>81</v>
@@ -3260,31 +3483,31 @@
         <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3299,16 +3522,16 @@
         <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>81</v>
@@ -3316,10 +3539,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3333,7 +3556,7 @@
         <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>81</v>
@@ -3342,19 +3565,19 @@
         <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>195</v>
+        <v>103</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>81</v>
@@ -3367,7 +3590,7 @@
         <v>81</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>81</v>
+        <v>195</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>81</v>
@@ -3403,7 +3626,7 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3418,27 +3641,27 @@
         <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>203</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3446,7 +3669,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>89</v>
@@ -3455,26 +3678,24 @@
         <v>81</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>81</v>
       </c>
@@ -3486,7 +3707,7 @@
         <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>81</v>
@@ -3537,16 +3758,16 @@
         <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>81</v>
@@ -3554,10 +3775,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3568,7 +3789,7 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>81</v>
@@ -3580,20 +3801,16 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>81</v>
       </c>
@@ -3641,13 +3858,13 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>81</v>
@@ -3656,16 +3873,16 @@
         <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>219</v>
+        <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>81</v>
@@ -3673,10 +3890,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3696,21 +3913,21 @@
         <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>81</v>
       </c>
@@ -3734,13 +3951,13 @@
         <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>227</v>
+        <v>81</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>228</v>
+        <v>81</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>81</v>
@@ -3758,7 +3975,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3773,16 +3990,16 @@
         <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>230</v>
+        <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>81</v>
@@ -3790,12 +4007,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="D20" t="s" s="2">
         <v>81</v>
       </c>
@@ -3813,22 +4032,20 @@
         <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>233</v>
+        <v>147</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>234</v>
+        <v>148</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>237</v>
+        <v>150</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>81</v>
@@ -3877,13 +4094,13 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>81</v>
@@ -3892,16 +4109,16 @@
         <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>238</v>
+        <v>153</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>239</v>
+        <v>156</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
@@ -3909,10 +4126,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>240</v>
+        <v>157</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3923,7 +4140,7 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>81</v>
@@ -3935,20 +4152,16 @@
         <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>241</v>
+        <v>158</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>242</v>
+        <v>159</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>81</v>
       </c>
@@ -3996,31 +4209,31 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>246</v>
+        <v>162</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>247</v>
+        <v>81</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
@@ -4028,14 +4241,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>248</v>
+        <v>163</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4054,20 +4267,18 @@
         <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>249</v>
+        <v>135</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>250</v>
+        <v>136</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>251</v>
+        <v>164</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>81</v>
       </c>
@@ -4103,19 +4314,19 @@
         <v>81</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>248</v>
+        <v>168</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4127,13 +4338,13 @@
         <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>254</v>
+        <v>140</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>255</v>
+        <v>162</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>81</v>
@@ -4147,10 +4358,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>256</v>
+        <v>169</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4167,22 +4378,26 @@
         <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>257</v>
+        <v>109</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>258</v>
+        <v>170</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>81</v>
       </c>
@@ -4206,13 +4421,13 @@
         <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>81</v>
@@ -4230,7 +4445,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>260</v>
+        <v>177</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4242,10 +4457,10 @@
         <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>81</v>
@@ -4254,7 +4469,7 @@
         <v>81</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>81</v>
@@ -4262,21 +4477,21 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>261</v>
+        <v>179</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>81</v>
@@ -4285,21 +4500,23 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>262</v>
+        <v>182</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>81</v>
       </c>
@@ -4323,13 +4540,13 @@
         <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>81</v>
@@ -4347,22 +4564,22 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>263</v>
+        <v>188</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>81</v>
@@ -4371,7 +4588,7 @@
         <v>81</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>81</v>
@@ -4379,45 +4596,45 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>264</v>
+        <v>190</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>266</v>
+        <v>191</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -4427,10 +4644,10 @@
         <v>81</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>81</v>
+        <v>195</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>81</v>
@@ -4466,22 +4683,22 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>268</v>
+        <v>196</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>132</v>
+        <v>197</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>81</v>
@@ -4490,7 +4707,7 @@
         <v>81</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>81</v>
@@ -4498,10 +4715,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>269</v>
+        <v>199</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4509,10 +4726,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>81</v>
@@ -4521,21 +4738,21 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>222</v>
+        <v>158</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>81</v>
       </c>
@@ -4547,7 +4764,7 @@
         <v>81</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>81</v>
@@ -4559,13 +4776,13 @@
         <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>273</v>
+        <v>81</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>274</v>
+        <v>81</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>81</v>
@@ -4583,13 +4800,13 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>269</v>
+        <v>204</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>81</v>
@@ -4598,16 +4815,16 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>275</v>
+        <v>205</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>276</v>
+        <v>206</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>81</v>
@@ -4615,10 +4832,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>277</v>
+        <v>207</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4638,21 +4855,19 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>278</v>
+        <v>209</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>279</v>
+        <v>210</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>280</v>
-      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>81</v>
       </c>
@@ -4700,7 +4915,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>277</v>
+        <v>211</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4715,16 +4930,16 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>281</v>
+        <v>213</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>81</v>
@@ -4732,10 +4947,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>282</v>
+        <v>214</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4746,7 +4961,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>81</v>
@@ -4755,23 +4970,21 @@
         <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>284</v>
+        <v>217</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>81</v>
       </c>
@@ -4819,13 +5032,13 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>282</v>
+        <v>219</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>81</v>
@@ -4834,16 +5047,16 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>286</v>
+        <v>221</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>81</v>
@@ -4851,12 +5064,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>287</v>
+        <v>233</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="D29" t="s" s="2">
         <v>81</v>
       </c>
@@ -4874,20 +5089,20 @@
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>213</v>
+        <v>147</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>288</v>
+        <v>148</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>289</v>
+        <v>149</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>81</v>
@@ -4936,13 +5151,13 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>287</v>
+        <v>146</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>81</v>
@@ -4951,16 +5166,16 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>218</v>
+        <v>153</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>291</v>
+        <v>156</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>81</v>
@@ -4968,10 +5183,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>292</v>
+        <v>157</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4994,18 +5209,16 @@
         <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>293</v>
+        <v>159</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>294</v>
+        <v>160</v>
       </c>
       <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>295</v>
-      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5029,13 +5242,13 @@
         <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>190</v>
+        <v>81</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>81</v>
@@ -5053,7 +5266,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>292</v>
+        <v>161</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5065,19 +5278,19 @@
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>81</v>
@@ -5085,21 +5298,21 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>297</v>
+        <v>236</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>297</v>
+        <v>163</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>81</v>
@@ -5111,18 +5324,18 @@
         <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>298</v>
+        <v>135</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>299</v>
+        <v>136</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>81</v>
       </c>
@@ -5158,43 +5371,43 @@
         <v>81</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>297</v>
+        <v>168</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>302</v>
+        <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>303</v>
+        <v>162</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>304</v>
+        <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>81</v>
@@ -5202,10 +5415,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>305</v>
+        <v>237</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>305</v>
+        <v>169</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5222,22 +5435,26 @@
         <v>81</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>306</v>
+        <v>109</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>307</v>
+        <v>170</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5261,13 +5478,13 @@
         <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>81</v>
@@ -5285,7 +5502,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>305</v>
+        <v>177</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5300,16 +5517,16 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>309</v>
+        <v>178</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>81</v>
@@ -5317,10 +5534,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>310</v>
+        <v>238</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>310</v>
+        <v>179</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5331,7 +5548,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>81</v>
@@ -5340,22 +5557,22 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>249</v>
+        <v>180</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>311</v>
+        <v>181</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>312</v>
+        <v>182</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>313</v>
+        <v>183</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>314</v>
+        <v>184</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -5380,13 +5597,13 @@
         <v>81</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>81</v>
@@ -5404,13 +5621,13 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>310</v>
+        <v>188</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>81</v>
@@ -5419,16 +5636,16 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>315</v>
+        <v>178</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>316</v>
+        <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>81</v>
@@ -5436,10 +5653,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>317</v>
+        <v>239</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>317</v>
+        <v>190</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5459,19 +5676,23 @@
         <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>257</v>
+        <v>103</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>258</v>
+        <v>191</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
       </c>
@@ -5480,10 +5701,10 @@
         <v>81</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>81</v>
+        <v>195</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>81</v>
@@ -5519,7 +5740,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>260</v>
+        <v>196</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5531,10 +5752,10 @@
         <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>81</v>
@@ -5543,7 +5764,7 @@
         <v>81</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>81</v>
@@ -5551,21 +5772,21 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>318</v>
+        <v>241</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>318</v>
+        <v>199</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>81</v>
@@ -5574,19 +5795,19 @@
         <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>262</v>
+        <v>201</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>138</v>
+        <v>202</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5600,7 +5821,7 @@
         <v>81</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>81</v>
@@ -5636,22 +5857,22 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>263</v>
+        <v>204</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>81</v>
@@ -5660,7 +5881,7 @@
         <v>81</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>81</v>
@@ -5668,46 +5889,42 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>319</v>
+        <v>242</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>319</v>
+        <v>207</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>135</v>
+        <v>208</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>266</v>
+        <v>209</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>81</v>
       </c>
@@ -5755,22 +5972,22 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>268</v>
+        <v>211</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>132</v>
+        <v>212</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>81</v>
@@ -5779,7 +5996,7 @@
         <v>81</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>81</v>
@@ -5787,10 +6004,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>320</v>
+        <v>243</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>320</v>
+        <v>214</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5798,7 +6015,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>89</v>
@@ -5810,23 +6027,21 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>321</v>
+        <v>216</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>322</v>
+        <v>217</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>81</v>
       </c>
@@ -5850,13 +6065,13 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
@@ -5874,10 +6089,10 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>320</v>
+        <v>219</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>89</v>
@@ -5889,16 +6104,16 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>325</v>
+        <v>220</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>326</v>
+        <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>327</v>
+        <v>221</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>81</v>
@@ -5906,10 +6121,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>328</v>
+        <v>244</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>328</v>
+        <v>244</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5926,30 +6141,32 @@
         <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>156</v>
+        <v>245</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>329</v>
+        <v>246</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>330</v>
+        <v>247</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>331</v>
+        <v>248</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>332</v>
+        <v>249</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="R38" t="s" s="2">
         <v>81</v>
       </c>
@@ -5993,7 +6210,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>328</v>
+        <v>244</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6008,16 +6225,16 @@
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>333</v>
+        <v>251</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>334</v>
+        <v>162</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>81</v>
+        <v>252</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>335</v>
+        <v>81</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>81</v>
@@ -6025,14 +6242,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>336</v>
+        <v>253</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>336</v>
+        <v>253</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>337</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6048,21 +6265,23 @@
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>338</v>
+        <v>254</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>339</v>
+        <v>255</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>340</v>
+        <v>256</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>81</v>
       </c>
@@ -6110,7 +6329,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>336</v>
+        <v>253</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6125,16 +6344,16 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>342</v>
+        <v>259</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>163</v>
+        <v>260</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>343</v>
+        <v>261</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>81</v>
@@ -6142,10 +6361,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>344</v>
+        <v>262</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>344</v>
+        <v>262</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6156,7 +6375,7 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>81</v>
@@ -6168,19 +6387,19 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>345</v>
+        <v>264</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>346</v>
+        <v>265</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>347</v>
+        <v>266</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>348</v>
+        <v>267</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6229,13 +6448,13 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>344</v>
+        <v>262</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>81</v>
@@ -6244,16 +6463,16 @@
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>349</v>
+        <v>269</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>81</v>
+        <v>270</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>81</v>
@@ -6261,10 +6480,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>350</v>
+        <v>271</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>350</v>
+        <v>271</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6275,31 +6494,31 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>249</v>
+        <v>109</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>351</v>
+        <v>272</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>352</v>
+        <v>273</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>353</v>
+        <v>274</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>354</v>
+        <v>275</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6324,13 +6543,13 @@
         <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>81</v>
@@ -6348,13 +6567,13 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>350</v>
+        <v>271</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>81</v>
@@ -6363,16 +6582,16 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>355</v>
+        <v>278</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>163</v>
+        <v>279</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>81</v>
+        <v>280</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>81</v>
@@ -6380,10 +6599,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>356</v>
+        <v>281</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>356</v>
+        <v>281</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6397,25 +6616,29 @@
         <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>81</v>
       </c>
@@ -6463,7 +6686,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6475,64 +6698,66 @@
         <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>163</v>
+        <v>287</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>81</v>
+        <v>290</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>357</v>
+        <v>291</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>357</v>
+        <v>291</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>135</v>
+        <v>292</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>136</v>
+        <v>293</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
       </c>
@@ -6580,31 +6805,31 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>163</v>
+        <v>297</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>81</v>
@@ -6612,14 +6837,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>358</v>
+        <v>299</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>358</v>
+        <v>299</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6632,25 +6857,25 @@
         <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>135</v>
+        <v>300</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>138</v>
+        <v>303</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>144</v>
+        <v>304</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -6699,7 +6924,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6711,19 +6936,19 @@
         <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>132</v>
+        <v>305</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>81</v>
+        <v>306</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>81</v>
+        <v>307</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>81</v>
@@ -6731,10 +6956,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>359</v>
+        <v>308</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>359</v>
+        <v>308</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6742,7 +6967,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>89</v>
@@ -6754,21 +6979,21 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>361</v>
+        <v>309</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
       </c>
@@ -6792,13 +7017,13 @@
         <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>81</v>
+        <v>312</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>81</v>
+        <v>313</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>81</v>
@@ -6816,10 +7041,10 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>359</v>
+        <v>308</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>89</v>
@@ -6831,16 +7056,16 @@
         <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>151</v>
+        <v>314</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>163</v>
+        <v>315</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>364</v>
+        <v>316</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
@@ -6848,10 +7073,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6859,7 +7084,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>89</v>
@@ -6871,19 +7096,23 @@
         <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>109</v>
+        <v>318</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
       </c>
@@ -6907,13 +7136,13 @@
         <v>81</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>367</v>
+        <v>81</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>368</v>
+        <v>81</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>81</v>
@@ -6931,10 +7160,10 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>89</v>
@@ -6946,23 +7175,3077 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="P47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="P48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="P51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="P52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="P53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AL46" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO46" t="s" s="2">
+      <c r="P55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="P66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="P70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO72" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO46">
+  <autoFilter ref="A1:AO72">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6972,7 +10255,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI45">
+  <conditionalFormatting sqref="A2:AI71">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2426" uniqueCount="450">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>LMDI Patient Profile</t>
+    <t>Pasient</t>
   </si>
   <si>
     <t>Status</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Kun et eksempel for å vise verktøy</t>
+    <t>Informasjon om pasienten</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -479,10 +479,10 @@
 </t>
   </si>
   <si>
-    <t>An identifier for this patient</t>
-  </si>
-  <si>
-    <t>An identifier for this patient.</t>
+    <t>Identifikator for pasienten.</t>
+  </si>
+  <si>
+    <t>Identifikator for pasienten. Skal være fødselsnummer (FNR) eller D-nummer (DNR).</t>
   </si>
   <si>
     <t>Patients are almost always assigned specific numerical identifiers.</t>
@@ -507,6 +507,21 @@
     <t>PID-3</t>
   </si>
   <si>
+    <t>Patient.identifier:FNR</t>
+  </si>
+  <si>
+    <t>FNR</t>
+  </si>
+  <si>
+    <t>An identifier for this patient</t>
+  </si>
+  <si>
+    <t>An identifier for this patient.</t>
+  </si>
+  <si>
+    <t>Patient.identifier:FNR.id</t>
+  </si>
+  <si>
     <t>Patient.identifier.id</t>
   </si>
   <si>
@@ -526,6 +541,9 @@
     <t>n/a</t>
   </si>
   <si>
+    <t>Patient.identifier:FNR.extension</t>
+  </si>
+  <si>
     <t>Patient.identifier.extension</t>
   </si>
   <si>
@@ -545,6 +563,9 @@
     <t>Element.extension</t>
   </si>
   <si>
+    <t>Patient.identifier:FNR.use</t>
+  </si>
+  <si>
     <t>Patient.identifier.use</t>
   </si>
   <si>
@@ -573,6 +594,9 @@
   </si>
   <si>
     <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Patient.identifier:FNR.type</t>
   </si>
   <si>
     <t>Patient.identifier.type</t>
@@ -609,6 +633,9 @@
     <t>CX.5</t>
   </si>
   <si>
+    <t>Patient.identifier:FNR.system</t>
+  </si>
+  <si>
     <t>Patient.identifier.system</t>
   </si>
   <si>
@@ -624,6 +651,9 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
+    <t>urn:oid:2.16.578.1.12.4.1.4.1</t>
+  </si>
+  <si>
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
@@ -636,6 +666,9 @@
     <t>CX.4 / EI-2-4</t>
   </si>
   <si>
+    <t>Patient.identifier:FNR.value</t>
+  </si>
+  <si>
     <t>Patient.identifier.value</t>
   </si>
   <si>
@@ -658,6 +691,9 @@
   </si>
   <si>
     <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>Patient.identifier:FNR.period</t>
   </si>
   <si>
     <t>Patient.identifier.period</t>
@@ -682,6 +718,9 @@
     <t>CX.7 + CX.8</t>
   </si>
   <si>
+    <t>Patient.identifier:FNR.assigner</t>
+  </si>
+  <si>
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
@@ -707,39 +746,6 @@
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
-    <t>Patient.identifier:FNR</t>
-  </si>
-  <si>
-    <t>FNR</t>
-  </si>
-  <si>
-    <t>Patient.identifier:FNR.id</t>
-  </si>
-  <si>
-    <t>Patient.identifier:FNR.extension</t>
-  </si>
-  <si>
-    <t>Patient.identifier:FNR.use</t>
-  </si>
-  <si>
-    <t>Patient.identifier:FNR.type</t>
-  </si>
-  <si>
-    <t>Patient.identifier:FNR.system</t>
-  </si>
-  <si>
-    <t>urn:oid:2.16.578.1.12.4.1.4.1</t>
-  </si>
-  <si>
-    <t>Patient.identifier:FNR.value</t>
-  </si>
-  <si>
-    <t>Patient.identifier:FNR.period</t>
-  </si>
-  <si>
-    <t>Patient.identifier:FNR.assigner</t>
-  </si>
-  <si>
     <t>Patient.identifier:DNR</t>
   </si>
   <si>
@@ -759,6 +765,9 @@
   </si>
   <si>
     <t>Patient.identifier:DNR.system</t>
+  </si>
+  <si>
+    <t>The identification of the D-nummer</t>
   </si>
   <si>
     <t>urn:oid:2.16.578.1.12.4.1.4.2</t>
@@ -1725,7 +1734,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO72"/>
+  <dimension ref="A1:AO64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3072,9 +3081,11 @@
         <v>157</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>81</v>
       </c>
@@ -3092,10 +3103,10 @@
         <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>159</v>
@@ -3104,7 +3115,9 @@
         <v>160</v>
       </c>
       <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>81</v>
       </c>
@@ -3152,31 +3165,31 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>81</v>
@@ -3184,21 +3197,21 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>81</v>
@@ -3210,17 +3223,15 @@
         <v>81</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>81</v>
@@ -3257,34 +3268,34 @@
         <v>81</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="AC13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AD13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE13" t="s" s="2">
+      <c r="AG13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>81</v>
@@ -3301,46 +3312,44 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>171</v>
-      </c>
       <c r="N14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>81</v>
       </c>
@@ -3364,46 +3373,46 @@
         <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>177</v>
-      </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>81</v>
@@ -3412,7 +3421,7 @@
         <v>81</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>81</v>
@@ -3420,10 +3429,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3440,25 +3449,25 @@
         <v>81</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>81</v>
@@ -3483,13 +3492,13 @@
         <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>81</v>
@@ -3507,7 +3516,7 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3522,7 +3531,7 @@
         <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>81</v>
@@ -3531,7 +3540,7 @@
         <v>81</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>81</v>
@@ -3539,10 +3548,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3565,19 +3574,19 @@
         <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>81</v>
@@ -3590,25 +3599,25 @@
         <v>81</v>
       </c>
       <c r="T16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Z16" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>81</v>
@@ -3641,16 +3650,16 @@
         <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>81</v>
@@ -3658,7 +3667,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>199</v>
@@ -3669,7 +3678,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>89</v>
@@ -3684,7 +3693,7 @@
         <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>200</v>
@@ -3695,7 +3704,9 @@
       <c r="N17" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="O17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>81</v>
       </c>
@@ -3704,10 +3715,10 @@
         <v>81</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>81</v>
+        <v>204</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>81</v>
@@ -3743,7 +3754,7 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3758,7 +3769,7 @@
         <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>81</v>
@@ -3767,7 +3778,7 @@
         <v>81</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>81</v>
@@ -3775,10 +3786,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3786,7 +3797,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>89</v>
@@ -3801,15 +3812,17 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>81</v>
@@ -3822,7 +3835,7 @@
         <v>81</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>81</v>
@@ -3858,7 +3871,7 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3873,7 +3886,7 @@
         <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>81</v>
@@ -3882,7 +3895,7 @@
         <v>81</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>81</v>
@@ -3890,10 +3903,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3916,17 +3929,15 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>81</v>
@@ -3975,7 +3986,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3990,7 +4001,7 @@
         <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>81</v>
@@ -3999,7 +4010,7 @@
         <v>81</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>81</v>
@@ -4007,14 +4018,12 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>81</v>
       </c>
@@ -4035,18 +4044,18 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>147</v>
+        <v>228</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>148</v>
+        <v>229</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>81</v>
       </c>
@@ -4094,13 +4103,13 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>146</v>
+        <v>232</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>81</v>
@@ -4109,16 +4118,16 @@
         <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>153</v>
+        <v>233</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>156</v>
+        <v>234</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
@@ -4126,12 +4135,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>81</v>
       </c>
@@ -4149,10 +4160,10 @@
         <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>159</v>
@@ -4161,7 +4172,9 @@
         <v>160</v>
       </c>
       <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>81</v>
       </c>
@@ -4209,31 +4222,31 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
@@ -4241,21 +4254,21 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>81</v>
@@ -4267,17 +4280,15 @@
         <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -4314,34 +4325,34 @@
         <v>81</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="AC22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AD22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE22" t="s" s="2">
+      <c r="AG22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>81</v>
@@ -4358,46 +4369,44 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>169</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M23" t="s" s="2">
-        <v>171</v>
-      </c>
       <c r="N23" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>81</v>
       </c>
@@ -4421,46 +4430,46 @@
         <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>177</v>
-      </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>81</v>
@@ -4469,7 +4478,7 @@
         <v>81</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>81</v>
@@ -4477,10 +4486,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4497,25 +4506,25 @@
         <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O24" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -4540,13 +4549,13 @@
         <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>81</v>
@@ -4564,7 +4573,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4579,7 +4588,7 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>81</v>
@@ -4588,7 +4597,7 @@
         <v>81</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>81</v>
@@ -4596,10 +4605,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4622,19 +4631,19 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -4644,28 +4653,28 @@
         <v>81</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c r="T25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Z25" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>81</v>
@@ -4698,16 +4707,16 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>81</v>
@@ -4715,7 +4724,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>199</v>
@@ -4726,7 +4735,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>89</v>
@@ -4741,10 +4750,10 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>201</v>
@@ -4752,7 +4761,9 @@
       <c r="N26" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="O26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
       </c>
@@ -4761,10 +4772,10 @@
         <v>81</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>81</v>
+        <v>243</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>81</v>
@@ -4800,7 +4811,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4815,7 +4826,7 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>81</v>
@@ -4824,7 +4835,7 @@
         <v>81</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>81</v>
@@ -4832,10 +4843,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4843,7 +4854,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>89</v>
@@ -4858,15 +4869,17 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>81</v>
@@ -4879,7 +4892,7 @@
         <v>81</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>81</v>
@@ -4915,7 +4928,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4930,7 +4943,7 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>81</v>
@@ -4939,7 +4952,7 @@
         <v>81</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>81</v>
@@ -4947,10 +4960,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4973,17 +4986,15 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -5032,7 +5043,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5047,7 +5058,7 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>81</v>
@@ -5056,7 +5067,7 @@
         <v>81</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>81</v>
@@ -5064,14 +5075,12 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5092,18 +5101,18 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>147</v>
+        <v>228</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>148</v>
+        <v>229</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5151,13 +5160,13 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>146</v>
+        <v>232</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>81</v>
@@ -5166,16 +5175,16 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>153</v>
+        <v>233</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>156</v>
+        <v>234</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>81</v>
@@ -5183,10 +5192,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>157</v>
+        <v>247</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5203,26 +5212,32 @@
         <v>81</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>158</v>
+        <v>248</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>159</v>
+        <v>249</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="R30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5266,7 +5281,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>161</v>
+        <v>247</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5278,16 +5293,16 @@
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>162</v>
+        <v>254</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>81</v>
+        <v>255</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
@@ -5298,14 +5313,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>163</v>
+        <v>256</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5321,21 +5336,23 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>135</v>
+        <v>257</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>136</v>
+        <v>258</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>164</v>
+        <v>259</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
       </c>
@@ -5371,19 +5388,19 @@
         <v>81</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>168</v>
+        <v>256</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5395,19 +5412,19 @@
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>162</v>
+        <v>262</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>81</v>
+        <v>264</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>81</v>
@@ -5415,10 +5432,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>169</v>
+        <v>265</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5429,31 +5446,31 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>109</v>
+        <v>266</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>170</v>
+        <v>267</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>171</v>
+        <v>268</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>172</v>
+        <v>269</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>173</v>
+        <v>270</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -5478,13 +5495,13 @@
         <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>81</v>
@@ -5502,13 +5519,13 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>177</v>
+        <v>265</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>81</v>
@@ -5517,16 +5534,16 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>178</v>
+        <v>271</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>81</v>
+        <v>272</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>132</v>
+        <v>273</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>81</v>
@@ -5534,10 +5551,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5551,7 +5568,7 @@
         <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>81</v>
@@ -5560,19 +5577,19 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>181</v>
+        <v>275</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>182</v>
+        <v>276</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>184</v>
+        <v>278</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -5597,13 +5614,13 @@
         <v>81</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>186</v>
+        <v>279</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>187</v>
+        <v>280</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>81</v>
@@ -5621,7 +5638,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>188</v>
+        <v>274</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5636,16 +5653,16 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>178</v>
+        <v>281</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>81</v>
+        <v>282</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>189</v>
+        <v>283</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>81</v>
@@ -5653,10 +5670,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>239</v>
+        <v>284</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>190</v>
+        <v>284</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5670,7 +5687,7 @@
         <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>81</v>
@@ -5679,19 +5696,19 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>103</v>
+        <v>285</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>191</v>
+        <v>286</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>192</v>
+        <v>287</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>193</v>
+        <v>288</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>194</v>
+        <v>289</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -5701,10 +5718,10 @@
         <v>81</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>240</v>
+        <v>81</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>195</v>
+        <v>81</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>81</v>
@@ -5740,7 +5757,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>196</v>
+        <v>284</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5755,27 +5772,27 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>197</v>
+        <v>290</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>81</v>
+        <v>291</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>198</v>
+        <v>292</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>81</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>241</v>
+        <v>294</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>199</v>
+        <v>294</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5783,7 +5800,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>89</v>
@@ -5792,24 +5809,26 @@
         <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>158</v>
+        <v>295</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>200</v>
+        <v>296</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>201</v>
+        <v>297</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
       </c>
@@ -5821,7 +5840,7 @@
         <v>81</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>203</v>
+        <v>81</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>81</v>
@@ -5857,7 +5876,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>204</v>
+        <v>294</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5872,16 +5891,16 @@
         <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>205</v>
+        <v>300</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>206</v>
+        <v>301</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>81</v>
@@ -5889,10 +5908,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>242</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>207</v>
+        <v>302</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5903,7 +5922,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>81</v>
@@ -5915,16 +5934,20 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>208</v>
+        <v>303</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>209</v>
+        <v>304</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
       </c>
@@ -5972,13 +5995,13 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>211</v>
+        <v>302</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>81</v>
@@ -5987,16 +6010,16 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>212</v>
+        <v>308</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>81</v>
+        <v>309</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>213</v>
+        <v>310</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>81</v>
@@ -6004,10 +6027,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>243</v>
+        <v>311</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>214</v>
+        <v>311</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6027,21 +6050,21 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>216</v>
+        <v>312</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
       </c>
@@ -6065,13 +6088,13 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>81</v>
+        <v>315</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>81</v>
+        <v>316</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
@@ -6089,7 +6112,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>219</v>
+        <v>311</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6104,16 +6127,16 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>220</v>
+        <v>317</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>81</v>
+        <v>318</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>221</v>
+        <v>319</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>81</v>
@@ -6121,10 +6144,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>244</v>
+        <v>320</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>244</v>
+        <v>320</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6141,32 +6164,30 @@
         <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>245</v>
+        <v>321</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>246</v>
+        <v>322</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>247</v>
+        <v>323</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>248</v>
+        <v>324</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>249</v>
+        <v>325</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q38" t="s" s="2">
-        <v>250</v>
-      </c>
+      <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
         <v>81</v>
       </c>
@@ -6210,7 +6231,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>244</v>
+        <v>320</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6225,16 +6246,16 @@
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>251</v>
+        <v>326</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>252</v>
+        <v>81</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>81</v>
+        <v>327</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>81</v>
@@ -6242,10 +6263,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>253</v>
+        <v>328</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>253</v>
+        <v>328</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6265,22 +6286,22 @@
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>254</v>
+        <v>329</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>255</v>
+        <v>330</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>256</v>
+        <v>331</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>257</v>
+        <v>332</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>258</v>
+        <v>333</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -6329,7 +6350,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>253</v>
+        <v>328</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6344,16 +6365,16 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>259</v>
+        <v>334</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>260</v>
+        <v>167</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>261</v>
+        <v>335</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>81</v>
@@ -6361,10 +6382,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>262</v>
+        <v>336</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>262</v>
+        <v>336</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6384,22 +6405,22 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>263</v>
+        <v>337</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>265</v>
+        <v>339</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>266</v>
+        <v>340</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>267</v>
+        <v>341</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6448,7 +6469,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>262</v>
+        <v>336</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6460,19 +6481,19 @@
         <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>101</v>
+        <v>342</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>268</v>
+        <v>343</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>269</v>
+        <v>167</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>81</v>
@@ -6480,10 +6501,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>271</v>
+        <v>344</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>271</v>
+        <v>344</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6497,29 +6518,25 @@
         <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>272</v>
+        <v>164</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
       </c>
@@ -6543,13 +6560,13 @@
         <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>277</v>
+        <v>81</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>81</v>
@@ -6567,7 +6584,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>271</v>
+        <v>166</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6579,19 +6596,19 @@
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>279</v>
+        <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>280</v>
+        <v>81</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>81</v>
@@ -6599,46 +6616,44 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>281</v>
+        <v>345</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>281</v>
+        <v>345</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>282</v>
+        <v>135</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>283</v>
+        <v>136</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>284</v>
+        <v>170</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>81</v>
       </c>
@@ -6686,53 +6701,53 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>281</v>
+        <v>174</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>287</v>
+        <v>167</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>288</v>
+        <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>289</v>
+        <v>81</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>290</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>291</v>
+        <v>346</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>291</v>
+        <v>346</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>81</v>
+        <v>347</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>81</v>
@@ -6744,19 +6759,19 @@
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>292</v>
+        <v>135</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>293</v>
+        <v>348</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>294</v>
+        <v>349</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>295</v>
+        <v>138</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>296</v>
+        <v>144</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -6805,31 +6820,31 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>291</v>
+        <v>350</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>297</v>
+        <v>132</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>298</v>
+        <v>81</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>81</v>
@@ -6837,10 +6852,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6860,22 +6875,20 @@
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>300</v>
+        <v>188</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>301</v>
+        <v>352</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>304</v>
+        <v>354</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -6900,13 +6913,13 @@
         <v>81</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>81</v>
+        <v>355</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>81</v>
+        <v>356</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>81</v>
@@ -6924,7 +6937,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6939,16 +6952,16 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>305</v>
+        <v>357</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>306</v>
+        <v>167</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>307</v>
+        <v>358</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>81</v>
@@ -6956,10 +6969,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>308</v>
+        <v>359</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>308</v>
+        <v>359</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6982,17 +6995,17 @@
         <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>180</v>
+        <v>257</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>309</v>
+        <v>360</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>310</v>
+        <v>361</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>311</v>
+        <v>362</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -7017,13 +7030,13 @@
         <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>312</v>
+        <v>81</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>313</v>
+        <v>81</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>81</v>
@@ -7041,7 +7054,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>308</v>
+        <v>359</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7056,16 +7069,16 @@
         <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>314</v>
+        <v>262</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>315</v>
+        <v>167</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
@@ -7073,10 +7086,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7087,7 +7100,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>81</v>
@@ -7099,19 +7112,19 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>318</v>
+        <v>266</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>319</v>
+        <v>365</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>320</v>
+        <v>366</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>321</v>
+        <v>367</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>322</v>
+        <v>270</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -7160,13 +7173,13 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>81</v>
@@ -7175,16 +7188,16 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>323</v>
+        <v>271</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>81</v>
@@ -7192,10 +7205,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7206,7 +7219,7 @@
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>81</v>
@@ -7218,19 +7231,17 @@
         <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>81</v>
@@ -7279,13 +7290,13 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>81</v>
@@ -7294,16 +7305,16 @@
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>81</v>
@@ -7311,10 +7322,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7325,7 +7336,7 @@
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>81</v>
@@ -7337,19 +7348,17 @@
         <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>334</v>
+        <v>109</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -7374,13 +7383,13 @@
         <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>81</v>
+        <v>279</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>81</v>
+        <v>280</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>81</v>
@@ -7398,31 +7407,31 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>339</v>
+        <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>340</v>
+        <v>281</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>81</v>
+        <v>378</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>81</v>
@@ -7430,10 +7439,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7456,16 +7465,18 @@
         <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>158</v>
+        <v>228</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>159</v>
+        <v>380</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>160</v>
+        <v>381</v>
       </c>
       <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>81</v>
       </c>
@@ -7513,7 +7524,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>161</v>
+        <v>379</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7522,22 +7533,22 @@
         <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>81</v>
+        <v>383</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>162</v>
+        <v>384</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>81</v>
+        <v>385</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>81</v>
@@ -7545,21 +7556,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>81</v>
@@ -7571,17 +7582,15 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>136</v>
+        <v>387</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>81</v>
@@ -7630,25 +7639,25 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>168</v>
+        <v>386</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>162</v>
+        <v>389</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>81</v>
@@ -7662,14 +7671,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>344</v>
+        <v>81</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7682,25 +7691,25 @@
         <v>81</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>135</v>
+        <v>337</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>345</v>
+        <v>391</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>346</v>
+        <v>392</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>138</v>
+        <v>393</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>144</v>
+        <v>394</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -7749,7 +7758,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7761,13 +7770,13 @@
         <v>81</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>132</v>
+        <v>395</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>81</v>
@@ -7781,10 +7790,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>348</v>
+        <v>397</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>348</v>
+        <v>397</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7795,7 +7804,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>81</v>
@@ -7807,18 +7816,16 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>349</v>
+        <v>164</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>350</v>
+        <v>165</v>
       </c>
       <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>351</v>
-      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>81</v>
       </c>
@@ -7842,13 +7849,13 @@
         <v>81</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>352</v>
+        <v>81</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>353</v>
+        <v>81</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>81</v>
@@ -7866,31 +7873,31 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>348</v>
+        <v>166</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>354</v>
+        <v>167</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>355</v>
+        <v>81</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>81</v>
@@ -7898,21 +7905,21 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>81</v>
@@ -7924,18 +7931,18 @@
         <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>254</v>
+        <v>135</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>357</v>
+        <v>136</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>81</v>
       </c>
@@ -7983,31 +7990,31 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>356</v>
+        <v>174</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>259</v>
+        <v>167</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>360</v>
+        <v>81</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>81</v>
@@ -8015,14 +8022,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>81</v>
+        <v>347</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8035,25 +8042,25 @@
         <v>81</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>263</v>
+        <v>135</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>364</v>
+        <v>138</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>267</v>
+        <v>144</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -8102,7 +8109,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8114,19 +8121,19 @@
         <v>81</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>268</v>
+        <v>132</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>365</v>
+        <v>81</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>81</v>
@@ -8134,10 +8141,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8145,7 +8152,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>89</v>
@@ -8160,17 +8167,19 @@
         <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>300</v>
+        <v>188</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="O55" t="s" s="2">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -8195,13 +8204,13 @@
         <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>81</v>
@@ -8219,10 +8228,10 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>89</v>
@@ -8234,16 +8243,16 @@
         <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>305</v>
+        <v>405</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>162</v>
+        <v>406</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>81</v>
@@ -8251,10 +8260,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8277,17 +8286,19 @@
         <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>109</v>
+        <v>248</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="O56" t="s" s="2">
-        <v>374</v>
+        <v>412</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>81</v>
@@ -8312,13 +8323,13 @@
         <v>81</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>277</v>
+        <v>81</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>81</v>
@@ -8336,7 +8347,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8351,16 +8362,16 @@
         <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>278</v>
+        <v>413</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>162</v>
+        <v>414</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>81</v>
@@ -8368,21 +8379,21 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>81</v>
+        <v>417</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>81</v>
@@ -8394,18 +8405,18 @@
         <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>215</v>
+        <v>418</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>81</v>
       </c>
@@ -8453,31 +8464,31 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>380</v>
+        <v>81</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>81</v>
@@ -8485,10 +8496,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8508,19 +8519,23 @@
         <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>81</v>
       </c>
@@ -8568,7 +8583,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8583,10 +8598,10 @@
         <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>162</v>
+        <v>429</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>81</v>
@@ -8600,10 +8615,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8620,25 +8635,25 @@
         <v>81</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>390</v>
+        <v>433</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>81</v>
@@ -8687,7 +8702,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8702,10 +8717,10 @@
         <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>393</v>
+        <v>167</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>81</v>
@@ -8719,10 +8734,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8745,13 +8760,13 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8802,7 +8817,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8817,7 +8832,7 @@
         <v>81</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>81</v>
@@ -8834,10 +8849,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8866,7 +8881,7 @@
         <v>136</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>138</v>
@@ -8919,7 +8934,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -8934,7 +8949,7 @@
         <v>140</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>81</v>
@@ -8951,14 +8966,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8980,10 +8995,10 @@
         <v>135</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>138</v>
@@ -9038,7 +9053,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9070,10 +9085,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9093,23 +9108,21 @@
         <v>81</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>180</v>
+        <v>440</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>399</v>
+        <v>442</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>81</v>
       </c>
@@ -9133,13 +9146,13 @@
         <v>81</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>81</v>
@@ -9157,7 +9170,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>89</v>
@@ -9172,16 +9185,16 @@
         <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>402</v>
+        <v>153</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>403</v>
+        <v>167</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>81</v>
@@ -9189,10 +9202,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>405</v>
+        <v>445</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>405</v>
+        <v>445</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9200,7 +9213,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>89</v>
@@ -9212,23 +9225,19 @@
         <v>81</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>245</v>
+        <v>109</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>81</v>
       </c>
@@ -9252,13 +9261,13 @@
         <v>81</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>81</v>
+        <v>447</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>81</v>
+        <v>448</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>81</v>
@@ -9276,10 +9285,10 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>405</v>
+        <v>445</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>89</v>
@@ -9291,961 +9300,23 @@
         <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>410</v>
+        <v>449</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>411</v>
+        <v>167</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>412</v>
+        <v>81</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="O65" s="2"/>
-      <c r="P65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="P66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="P67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O69" s="2"/>
-      <c r="P69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="P70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="O71" s="2"/>
-      <c r="P71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO72" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO72">
+  <autoFilter ref="A1:AO64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10255,7 +9326,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI71">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -639,7 +639,7 @@
     <t>Patient.identifier.system</t>
   </si>
   <si>
-    <t>The namespace for the identifier value</t>
+    <t>The identification of the Fødselsnummer</t>
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
@@ -875,7 +875,7 @@
     <t>Kjønn</t>
   </si>
   <si>
-    <t>Pasientens kjønn skal oppgis sammen med fødselsdato hvis det ikke finnes pasient-ID.</t>
+    <t>Pasientens kjønn. Skal oppgis sammen med fødselsdato hvis det ikke finnes pasient-ID.</t>
   </si>
   <si>
     <t>The gender might not match the biological sex as determined by genetics or the individual's preferred identification. Note that for both humans and particularly animals, there are other legitimate possibilities than male and female, though the vast majority of systems and contexts only support male and female.  Systems providing decision support or enforcing business rules should ideally do this on the basis of Observations dealing with the specific sex or gender aspect of interest (anatomical, chromosomal, social, etc.)  However, because these observations are infrequently recorded, defaulting to the administrative gender is common practice.  Where such defaulting occurs, rule enforcement should allow for the variation between administrative and biological, chromosomal and other gender aspects.  For example, an alert about a hysterectomy on a male should be handled as a warning or overridable error, not a "hard" error.  See the Patient Gender and Sex section for additional information about communicating patient gender and sex.</t>
@@ -909,7 +909,7 @@
     <t>Fødselsdato</t>
   </si>
   <si>
-    <t>Pasientens fødselsdato skal oppgis sammen med kjønn hvis det ikke finnes pasient-ID.</t>
+    <t>Pasientens fødselsdato. Skal oppgis sammen med kjønn hvis det ikke finnes pasient-ID.</t>
   </si>
   <si>
     <t>At least an estimated year should be provided as a guess if the real DOB is unknown  There is a standard extension "patient-birthTime" available that should be used where Time is required (such as in maternity/infant care systems).</t>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23</t>
+    <t>2024-05-27</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.0</t>
+    <t>0.6.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.1</t>
+    <t>0.6.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.2</t>
+    <t>0.6.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27</t>
+    <t>2024-06-07</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.3</t>
+    <t>0.6.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.4</t>
+    <t>0.6.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2426" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2426" uniqueCount="452">
   <si>
     <t>Property</t>
   </si>
@@ -513,6 +513,10 @@
     <t>FNR</t>
   </si>
   <si>
+    <t xml:space="preserve">fødselsnummer
+</t>
+  </si>
+  <si>
     <t>An identifier for this patient</t>
   </si>
   <si>
@@ -750,6 +754,10 @@
   </si>
   <si>
     <t>DNR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-nummer
+</t>
   </si>
   <si>
     <t>Patient.identifier:DNR.id</t>
@@ -3087,7 +3095,7 @@
         <v>158</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3109,10 +3117,10 @@
         <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3197,10 +3205,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3223,13 +3231,13 @@
         <v>81</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3280,7 +3288,7 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3295,7 +3303,7 @@
         <v>81</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>81</v>
@@ -3312,10 +3320,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3344,7 +3352,7 @@
         <v>136</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
         <v>138</v>
@@ -3385,19 +3393,19 @@
         <v>81</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3412,7 +3420,7 @@
         <v>140</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>81</v>
@@ -3429,10 +3437,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3458,16 +3466,16 @@
         <v>109</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>81</v>
@@ -3492,13 +3500,13 @@
         <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>81</v>
@@ -3516,7 +3524,7 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3531,7 +3539,7 @@
         <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>81</v>
@@ -3548,10 +3556,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3574,19 +3582,19 @@
         <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>81</v>
@@ -3611,13 +3619,13 @@
         <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>81</v>
@@ -3635,7 +3643,7 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3650,7 +3658,7 @@
         <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>81</v>
@@ -3659,7 +3667,7 @@
         <v>81</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>81</v>
@@ -3667,10 +3675,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3696,16 +3704,16 @@
         <v>103</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>81</v>
@@ -3715,10 +3723,10 @@
         <v>81</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>81</v>
@@ -3754,7 +3762,7 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3769,7 +3777,7 @@
         <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>81</v>
@@ -3778,7 +3786,7 @@
         <v>81</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>81</v>
@@ -3786,10 +3794,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3812,16 +3820,16 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3835,7 +3843,7 @@
         <v>81</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>81</v>
@@ -3871,7 +3879,7 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3886,7 +3894,7 @@
         <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>81</v>
@@ -3895,7 +3903,7 @@
         <v>81</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>81</v>
@@ -3903,10 +3911,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3929,13 +3937,13 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3986,7 +3994,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4001,7 +4009,7 @@
         <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>81</v>
@@ -4010,7 +4018,7 @@
         <v>81</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>81</v>
@@ -4018,10 +4026,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4044,16 +4052,16 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4103,7 +4111,7 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4118,7 +4126,7 @@
         <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>81</v>
@@ -4127,7 +4135,7 @@
         <v>81</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
@@ -4135,16 +4143,16 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>146</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4166,10 +4174,10 @@
         <v>147</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4254,10 +4262,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4280,13 +4288,13 @@
         <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4337,7 +4345,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4352,7 +4360,7 @@
         <v>81</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>81</v>
@@ -4369,10 +4377,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4401,7 +4409,7 @@
         <v>136</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>138</v>
@@ -4442,19 +4450,19 @@
         <v>81</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4469,7 +4477,7 @@
         <v>140</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>81</v>
@@ -4486,10 +4494,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4515,16 +4523,16 @@
         <v>109</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -4549,13 +4557,13 @@
         <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>81</v>
@@ -4573,7 +4581,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4588,7 +4596,7 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>81</v>
@@ -4605,10 +4613,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4631,19 +4639,19 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -4668,13 +4676,13 @@
         <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>81</v>
@@ -4692,7 +4700,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4707,7 +4715,7 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>81</v>
@@ -4716,7 +4724,7 @@
         <v>81</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>81</v>
@@ -4724,10 +4732,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4753,16 +4761,16 @@
         <v>103</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -4772,10 +4780,10 @@
         <v>81</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>81</v>
@@ -4811,7 +4819,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4826,7 +4834,7 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>81</v>
@@ -4835,7 +4843,7 @@
         <v>81</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>81</v>
@@ -4843,10 +4851,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4869,16 +4877,16 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4892,7 +4900,7 @@
         <v>81</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>81</v>
@@ -4928,7 +4936,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4943,7 +4951,7 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>81</v>
@@ -4952,7 +4960,7 @@
         <v>81</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>81</v>
@@ -4960,10 +4968,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4986,13 +4994,13 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5043,7 +5051,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5058,7 +5066,7 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>81</v>
@@ -5067,7 +5075,7 @@
         <v>81</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>81</v>
@@ -5075,10 +5083,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5101,16 +5109,16 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5160,7 +5168,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5175,7 +5183,7 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>81</v>
@@ -5184,7 +5192,7 @@
         <v>81</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>81</v>
@@ -5192,10 +5200,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5218,70 +5226,70 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="P30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q30" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="P30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q30" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5296,13 +5304,13 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
@@ -5313,10 +5321,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5339,19 +5347,19 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5400,7 +5408,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5415,16 +5423,16 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>81</v>
@@ -5432,10 +5440,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5458,19 +5466,19 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -5519,7 +5527,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5534,16 +5542,16 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>81</v>
@@ -5551,10 +5559,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5580,16 +5588,16 @@
         <v>109</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -5614,13 +5622,13 @@
         <v>81</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>81</v>
@@ -5638,7 +5646,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5653,16 +5661,16 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>81</v>
@@ -5670,10 +5678,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5696,19 +5704,19 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -5757,7 +5765,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5772,27 +5780,27 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5815,19 +5823,19 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -5876,7 +5884,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5891,16 +5899,16 @@
         <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>81</v>
@@ -5908,10 +5916,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5934,19 +5942,19 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -5995,7 +6003,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6010,16 +6018,16 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>81</v>
@@ -6027,10 +6035,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6053,17 +6061,17 @@
         <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -6088,13 +6096,13 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
@@ -6112,7 +6120,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6127,16 +6135,16 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>81</v>
@@ -6144,10 +6152,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6170,19 +6178,19 @@
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6231,7 +6239,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6246,16 +6254,16 @@
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>81</v>
@@ -6263,10 +6271,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6289,19 +6297,19 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -6350,7 +6358,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6365,16 +6373,16 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>81</v>
@@ -6382,10 +6390,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6408,19 +6416,19 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6469,7 +6477,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6481,13 +6489,13 @@
         <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>81</v>
@@ -6501,10 +6509,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6527,13 +6535,13 @@
         <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6584,7 +6592,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6599,7 +6607,7 @@
         <v>81</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>81</v>
@@ -6616,10 +6624,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6648,7 +6656,7 @@
         <v>136</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>138</v>
@@ -6701,7 +6709,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6716,7 +6724,7 @@
         <v>140</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>81</v>
@@ -6733,14 +6741,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6762,10 +6770,10 @@
         <v>135</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>138</v>
@@ -6820,7 +6828,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6852,10 +6860,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6878,17 +6886,17 @@
         <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -6913,13 +6921,13 @@
         <v>81</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>81</v>
@@ -6937,7 +6945,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6952,16 +6960,16 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>81</v>
@@ -6969,10 +6977,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6995,17 +7003,17 @@
         <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -7054,7 +7062,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7069,16 +7077,16 @@
         <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
@@ -7086,10 +7094,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7112,19 +7120,19 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -7173,7 +7181,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7188,16 +7196,16 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>81</v>
@@ -7205,10 +7213,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7231,17 +7239,17 @@
         <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>81</v>
@@ -7290,7 +7298,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7305,16 +7313,16 @@
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>81</v>
@@ -7322,10 +7330,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7351,14 +7359,14 @@
         <v>109</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -7383,13 +7391,13 @@
         <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>81</v>
@@ -7407,7 +7415,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7422,16 +7430,16 @@
         <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>81</v>
@@ -7439,10 +7447,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7465,17 +7473,17 @@
         <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>81</v>
@@ -7524,7 +7532,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7533,22 +7541,22 @@
         <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>81</v>
@@ -7556,10 +7564,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7582,13 +7590,13 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7639,7 +7647,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7654,10 +7662,10 @@
         <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>81</v>
@@ -7671,10 +7679,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7697,19 +7705,19 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -7758,7 +7766,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7773,10 +7781,10 @@
         <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>81</v>
@@ -7790,10 +7798,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7816,13 +7824,13 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7873,7 +7881,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7888,7 +7896,7 @@
         <v>81</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>81</v>
@@ -7905,10 +7913,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7937,7 +7945,7 @@
         <v>136</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>138</v>
@@ -7990,7 +7998,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8005,7 +8013,7 @@
         <v>140</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>81</v>
@@ -8022,14 +8030,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8051,10 +8059,10 @@
         <v>135</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>138</v>
@@ -8109,7 +8117,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8141,10 +8149,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8167,19 +8175,19 @@
         <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -8228,7 +8236,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>89</v>
@@ -8243,16 +8251,16 @@
         <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>81</v>
@@ -8260,10 +8268,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8286,19 +8294,19 @@
         <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>81</v>
@@ -8347,7 +8355,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8362,16 +8370,16 @@
         <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>81</v>
@@ -8379,14 +8387,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8405,16 +8413,16 @@
         <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8464,7 +8472,7 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8479,16 +8487,16 @@
         <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>81</v>
@@ -8496,10 +8504,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8522,19 +8530,19 @@
         <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>81</v>
@@ -8583,7 +8591,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8598,10 +8606,10 @@
         <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>81</v>
@@ -8615,10 +8623,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8641,19 +8649,19 @@
         <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>81</v>
@@ -8702,7 +8710,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8717,10 +8725,10 @@
         <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>81</v>
@@ -8734,10 +8742,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8760,13 +8768,13 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8817,7 +8825,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8832,7 +8840,7 @@
         <v>81</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>81</v>
@@ -8849,10 +8857,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8881,7 +8889,7 @@
         <v>136</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>138</v>
@@ -8934,7 +8942,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -8949,7 +8957,7 @@
         <v>140</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>81</v>
@@ -8966,14 +8974,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8995,10 +9003,10 @@
         <v>135</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>138</v>
@@ -9053,7 +9061,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9085,10 +9093,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9111,16 +9119,16 @@
         <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9170,7 +9178,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>89</v>
@@ -9188,13 +9196,13 @@
         <v>153</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>81</v>
@@ -9202,10 +9210,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9231,10 +9239,10 @@
         <v>109</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9261,31 +9269,31 @@
         <v>81</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y64" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF64" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>89</v>
@@ -9300,10 +9308,10 @@
         <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>81</v>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.5</t>
+    <t>0.6.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2426" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2426" uniqueCount="451">
   <si>
     <t>Property</t>
   </si>
@@ -513,11 +513,7 @@
     <t>FNR</t>
   </si>
   <si>
-    <t xml:space="preserve">fødselsnummer
-</t>
-  </si>
-  <si>
-    <t>An identifier for this patient</t>
+    <t>Fødselsnummer</t>
   </si>
   <si>
     <t>An identifier for this patient.</t>
@@ -756,8 +752,7 @@
     <t>DNR</t>
   </si>
   <si>
-    <t xml:space="preserve">D-nummer
-</t>
+    <t>D-nummer</t>
   </si>
   <si>
     <t>Patient.identifier:DNR.id</t>
@@ -3095,7 +3090,7 @@
         <v>158</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3117,10 +3112,10 @@
         <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3205,10 +3200,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3231,13 +3226,13 @@
         <v>81</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3288,7 +3283,7 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3303,7 +3298,7 @@
         <v>81</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>81</v>
@@ -3320,10 +3315,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3352,7 +3347,7 @@
         <v>136</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N14" t="s" s="2">
         <v>138</v>
@@ -3393,19 +3388,19 @@
         <v>81</v>
       </c>
       <c r="AB14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AC14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AC14" t="s" s="2">
+      <c r="AD14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AD14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE14" t="s" s="2">
+      <c r="AF14" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3420,7 +3415,7 @@
         <v>140</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>81</v>
@@ -3437,10 +3432,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3466,16 +3461,16 @@
         <v>109</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>81</v>
@@ -3500,31 +3495,31 @@
         <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Z15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3539,7 +3534,7 @@
         <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>81</v>
@@ -3556,10 +3551,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3582,19 +3577,19 @@
         <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>81</v>
@@ -3619,31 +3614,31 @@
         <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Z16" t="s" s="2">
+      <c r="AA16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3658,7 +3653,7 @@
         <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>81</v>
@@ -3667,7 +3662,7 @@
         <v>81</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>81</v>
@@ -3675,10 +3670,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3704,16 +3699,16 @@
         <v>103</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>81</v>
@@ -3723,46 +3718,46 @@
         <v>81</v>
       </c>
       <c r="S17" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="T17" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="T17" t="s" s="2">
+      <c r="U17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3777,16 +3772,16 @@
         <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>81</v>
@@ -3794,10 +3789,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3820,16 +3815,16 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3843,43 +3838,43 @@
         <v>81</v>
       </c>
       <c r="T18" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3894,16 +3889,16 @@
         <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>81</v>
@@ -3911,10 +3906,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3937,13 +3932,13 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3994,7 +3989,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4009,16 +4004,16 @@
         <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>81</v>
@@ -4026,10 +4021,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4052,16 +4047,16 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4111,7 +4106,7 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4126,16 +4121,16 @@
         <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
@@ -4143,16 +4138,16 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>146</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>238</v>
+        <v>81</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4174,10 +4169,10 @@
         <v>147</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4262,10 +4257,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4288,13 +4283,13 @@
         <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4345,7 +4340,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4360,7 +4355,7 @@
         <v>81</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>81</v>
@@ -4377,10 +4372,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4409,7 +4404,7 @@
         <v>136</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>138</v>
@@ -4450,19 +4445,19 @@
         <v>81</v>
       </c>
       <c r="AB23" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AC23" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AC23" t="s" s="2">
+      <c r="AD23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AD23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE23" t="s" s="2">
+      <c r="AF23" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4477,7 +4472,7 @@
         <v>140</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>81</v>
@@ -4494,10 +4489,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4523,16 +4518,16 @@
         <v>109</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -4557,31 +4552,31 @@
         <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="Z24" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Z24" t="s" s="2">
+      <c r="AA24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4596,7 +4591,7 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>81</v>
@@ -4613,10 +4608,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4639,19 +4634,19 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -4676,31 +4671,31 @@
         <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Z25" t="s" s="2">
+      <c r="AA25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4715,7 +4710,7 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>81</v>
@@ -4724,7 +4719,7 @@
         <v>81</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>81</v>
@@ -4732,10 +4727,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4761,16 +4756,16 @@
         <v>103</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M26" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -4780,46 +4775,46 @@
         <v>81</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="T26" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4834,16 +4829,16 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>81</v>
@@ -4851,10 +4846,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4877,16 +4872,16 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4900,43 +4895,43 @@
         <v>81</v>
       </c>
       <c r="T27" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4951,16 +4946,16 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>81</v>
@@ -4968,10 +4963,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4994,13 +4989,13 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5051,7 +5046,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5066,16 +5061,16 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>81</v>
@@ -5083,10 +5078,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5109,16 +5104,16 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5168,7 +5163,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5183,16 +5178,16 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>81</v>
@@ -5200,10 +5195,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5226,26 +5221,26 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="O30" t="s" s="2">
+      <c r="P30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q30" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="P30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q30" t="s" s="2">
-        <v>255</v>
-      </c>
       <c r="R30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5289,7 +5284,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5304,13 +5299,13 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
@@ -5321,10 +5316,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5347,19 +5342,19 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5408,7 +5403,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5423,16 +5418,16 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>81</v>
@@ -5440,10 +5435,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5466,19 +5461,19 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -5527,7 +5522,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5542,16 +5537,16 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>81</v>
@@ -5559,10 +5554,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5588,16 +5583,16 @@
         <v>109</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -5622,14 +5617,14 @@
         <v>81</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y33" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="Z33" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="Z33" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="AA33" t="s" s="2">
         <v>81</v>
       </c>
@@ -5646,7 +5641,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5661,16 +5656,16 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>81</v>
@@ -5678,10 +5673,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5704,19 +5699,19 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -5765,7 +5760,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5780,27 +5775,27 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AM34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>295</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5823,19 +5818,19 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -5884,7 +5879,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5899,16 +5894,16 @@
         <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>81</v>
@@ -5916,10 +5911,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5942,19 +5937,19 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -6003,7 +5998,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6018,16 +6013,16 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>81</v>
@@ -6035,10 +6030,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6061,17 +6056,17 @@
         <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -6096,14 +6091,14 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y37" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="Z37" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>318</v>
-      </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
       </c>
@@ -6120,7 +6115,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6135,16 +6130,16 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>81</v>
@@ -6152,10 +6147,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6178,19 +6173,19 @@
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6239,7 +6234,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6254,16 +6249,16 @@
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>81</v>
@@ -6271,10 +6266,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6297,19 +6292,19 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -6358,7 +6353,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6373,16 +6368,16 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>81</v>
@@ -6390,10 +6385,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6416,19 +6411,19 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6477,7 +6472,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6489,13 +6484,13 @@
         <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AK40" t="s" s="2">
-        <v>345</v>
-      </c>
       <c r="AL40" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>81</v>
@@ -6509,10 +6504,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6535,13 +6530,13 @@
         <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6592,7 +6587,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6607,7 +6602,7 @@
         <v>81</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>81</v>
@@ -6624,10 +6619,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6656,7 +6651,7 @@
         <v>136</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>138</v>
@@ -6709,7 +6704,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6724,7 +6719,7 @@
         <v>140</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>81</v>
@@ -6741,14 +6736,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6770,10 +6765,10 @@
         <v>135</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>138</v>
@@ -6828,7 +6823,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6860,10 +6855,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6886,17 +6881,17 @@
         <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -6921,14 +6916,14 @@
         <v>81</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y44" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="Z44" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="Z44" t="s" s="2">
-        <v>358</v>
-      </c>
       <c r="AA44" t="s" s="2">
         <v>81</v>
       </c>
@@ -6945,7 +6940,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6960,16 +6955,16 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>81</v>
@@ -6977,10 +6972,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7003,17 +6998,17 @@
         <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -7062,7 +7057,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7077,16 +7072,16 @@
         <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
@@ -7094,10 +7089,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7120,19 +7115,19 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="N46" t="s" s="2">
-        <v>369</v>
-      </c>
       <c r="O46" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -7181,7 +7176,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7196,16 +7191,16 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>81</v>
@@ -7213,10 +7208,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7239,17 +7234,17 @@
         <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>81</v>
@@ -7298,7 +7293,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7313,16 +7308,16 @@
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>81</v>
@@ -7330,10 +7325,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7359,14 +7354,14 @@
         <v>109</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -7391,14 +7386,14 @@
         <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y48" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="Z48" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="Z48" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="AA48" t="s" s="2">
         <v>81</v>
       </c>
@@ -7415,7 +7410,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7430,16 +7425,16 @@
         <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>81</v>
@@ -7447,10 +7442,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7473,17 +7468,17 @@
         <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>81</v>
@@ -7532,7 +7527,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7541,22 +7536,22 @@
         <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>81</v>
@@ -7564,10 +7559,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7590,13 +7585,13 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7647,7 +7642,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7662,10 +7657,10 @@
         <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>81</v>
@@ -7679,10 +7674,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7705,19 +7700,19 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -7766,7 +7761,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7781,10 +7776,10 @@
         <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>81</v>
@@ -7798,10 +7793,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7824,13 +7819,13 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7881,7 +7876,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7896,7 +7891,7 @@
         <v>81</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>81</v>
@@ -7913,10 +7908,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7945,7 +7940,7 @@
         <v>136</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>138</v>
@@ -7998,7 +7993,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8013,7 +8008,7 @@
         <v>140</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>81</v>
@@ -8030,14 +8025,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8059,10 +8054,10 @@
         <v>135</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>138</v>
@@ -8117,7 +8112,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8149,10 +8144,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8175,19 +8170,19 @@
         <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -8236,7 +8231,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>89</v>
@@ -8251,16 +8246,16 @@
         <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>81</v>
@@ -8268,10 +8263,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8294,19 +8289,19 @@
         <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="N56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>81</v>
@@ -8355,7 +8350,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8370,16 +8365,16 @@
         <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>81</v>
@@ -8387,14 +8382,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8413,16 +8408,16 @@
         <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8472,7 +8467,7 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8487,16 +8482,16 @@
         <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>81</v>
@@ -8504,10 +8499,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8530,19 +8525,19 @@
         <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>81</v>
@@ -8591,7 +8586,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8606,10 +8601,10 @@
         <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>81</v>
@@ -8623,10 +8618,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8649,19 +8644,19 @@
         <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="N59" t="s" s="2">
+      <c r="O59" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>81</v>
@@ -8710,7 +8705,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8725,10 +8720,10 @@
         <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>81</v>
@@ -8742,10 +8737,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8768,13 +8763,13 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8825,7 +8820,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8840,7 +8835,7 @@
         <v>81</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>81</v>
@@ -8857,10 +8852,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8889,7 +8884,7 @@
         <v>136</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>138</v>
@@ -8942,7 +8937,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -8957,7 +8952,7 @@
         <v>140</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>81</v>
@@ -8974,14 +8969,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9003,10 +8998,10 @@
         <v>135</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>138</v>
@@ -9061,7 +9056,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9093,10 +9088,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9119,16 +9114,16 @@
         <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9178,7 +9173,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>89</v>
@@ -9196,13 +9191,13 @@
         <v>153</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>81</v>
@@ -9210,10 +9205,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9239,10 +9234,10 @@
         <v>109</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9269,14 +9264,14 @@
         <v>81</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y64" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="Z64" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="Z64" t="s" s="2">
-        <v>450</v>
-      </c>
       <c r="AA64" t="s" s="2">
         <v>81</v>
       </c>
@@ -9293,7 +9288,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>89</v>
@@ -9308,10 +9303,10 @@
         <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>81</v>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2426" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2426" uniqueCount="450">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-07</t>
+    <t>2024-06-12</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -881,7 +881,7 @@
     <t>Pasientens kjønn. Skal oppgis sammen med fødselsdato hvis det ikke finnes pasient-ID.</t>
   </si>
   <si>
-    <t>The gender might not match the biological sex as determined by genetics or the individual's preferred identification. Note that for both humans and particularly animals, there are other legitimate possibilities than male and female, though the vast majority of systems and contexts only support male and female.  Systems providing decision support or enforcing business rules should ideally do this on the basis of Observations dealing with the specific sex or gender aspect of interest (anatomical, chromosomal, social, etc.)  However, because these observations are infrequently recorded, defaulting to the administrative gender is common practice.  Where such defaulting occurs, rule enforcement should allow for the variation between administrative and biological, chromosomal and other gender aspects.  For example, an alert about a hysterectomy on a male should be handled as a warning or overridable error, not a "hard" error.  See the Patient Gender and Sex section for additional information about communicating patient gender and sex.</t>
+    <t>Inkluderer helst hvis opplysningen finnes.</t>
   </si>
   <si>
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
@@ -913,9 +913,6 @@
   </si>
   <si>
     <t>Pasientens fødselsdato. Skal oppgis sammen med kjønn hvis det ikke finnes pasient-ID.</t>
-  </si>
-  <si>
-    <t>At least an estimated year should be provided as a guess if the real DOB is unknown  There is a standard extension "patient-birthTime" available that should be used where Time is required (such as in maternity/infant care systems).</t>
   </si>
   <si>
     <t>Age of the individual drives many clinical processes.</t>
@@ -5708,10 +5705,10 @@
         <v>288</v>
       </c>
       <c r="N34" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O34" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -5775,27 +5772,27 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AM34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5818,19 +5815,19 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -5879,7 +5876,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5894,7 +5891,7 @@
         <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>167</v>
@@ -5903,7 +5900,7 @@
         <v>81</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>81</v>
@@ -5911,10 +5908,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5937,19 +5934,19 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -5998,7 +5995,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6013,16 +6010,16 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>81</v>
@@ -6030,10 +6027,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6059,14 +6056,14 @@
         <v>188</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -6094,11 +6091,11 @@
         <v>193</v>
       </c>
       <c r="Y37" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="Z37" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>317</v>
-      </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
       </c>
@@ -6115,7 +6112,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6130,16 +6127,16 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>81</v>
@@ -6147,10 +6144,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6173,19 +6170,19 @@
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6234,7 +6231,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6249,7 +6246,7 @@
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>167</v>
@@ -6258,7 +6255,7 @@
         <v>81</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>81</v>
@@ -6266,10 +6263,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6292,19 +6289,19 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -6353,7 +6350,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6368,7 +6365,7 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>167</v>
@@ -6377,7 +6374,7 @@
         <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>81</v>
@@ -6385,10 +6382,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6411,19 +6408,19 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6472,7 +6469,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6484,10 +6481,10 @@
         <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>167</v>
@@ -6504,10 +6501,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6619,10 +6616,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6736,14 +6733,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6765,10 +6762,10 @@
         <v>135</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>138</v>
@@ -6823,7 +6820,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6855,10 +6852,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6884,14 +6881,14 @@
         <v>188</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -6919,11 +6916,11 @@
         <v>193</v>
       </c>
       <c r="Y44" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="Z44" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="Z44" t="s" s="2">
-        <v>357</v>
-      </c>
       <c r="AA44" t="s" s="2">
         <v>81</v>
       </c>
@@ -6940,7 +6937,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6955,7 +6952,7 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>167</v>
@@ -6964,7 +6961,7 @@
         <v>81</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>81</v>
@@ -6972,10 +6969,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7001,14 +6998,14 @@
         <v>258</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -7057,7 +7054,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7081,7 +7078,7 @@
         <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
@@ -7089,10 +7086,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7118,13 +7115,13 @@
         <v>267</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>271</v>
@@ -7176,7 +7173,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7200,7 +7197,7 @@
         <v>81</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>81</v>
@@ -7208,10 +7205,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7234,17 +7231,17 @@
         <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>81</v>
@@ -7293,7 +7290,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7308,7 +7305,7 @@
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>167</v>
@@ -7317,7 +7314,7 @@
         <v>81</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>81</v>
@@ -7325,10 +7322,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7354,14 +7351,14 @@
         <v>109</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -7410,7 +7407,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7434,7 +7431,7 @@
         <v>81</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>81</v>
@@ -7442,10 +7439,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7471,14 +7468,14 @@
         <v>228</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>81</v>
@@ -7527,7 +7524,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7536,13 +7533,13 @@
         <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>167</v>
@@ -7551,7 +7548,7 @@
         <v>81</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>81</v>
@@ -7559,10 +7556,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7588,10 +7585,10 @@
         <v>220</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7642,7 +7639,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7657,7 +7654,7 @@
         <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>167</v>
@@ -7674,10 +7671,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7700,19 +7697,19 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -7761,7 +7758,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7776,10 +7773,10 @@
         <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>81</v>
@@ -7793,10 +7790,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7908,10 +7905,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8025,14 +8022,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8054,10 +8051,10 @@
         <v>135</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>138</v>
@@ -8112,7 +8109,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8144,10 +8141,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8173,16 +8170,16 @@
         <v>188</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -8231,7 +8228,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>89</v>
@@ -8246,16 +8243,16 @@
         <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>81</v>
@@ -8263,10 +8260,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8292,16 +8289,16 @@
         <v>249</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="N56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>81</v>
@@ -8350,7 +8347,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8365,16 +8362,16 @@
         <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>81</v>
@@ -8382,14 +8379,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8408,16 +8405,16 @@
         <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8467,7 +8464,7 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8482,7 +8479,7 @@
         <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>167</v>
@@ -8491,7 +8488,7 @@
         <v>81</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>81</v>
@@ -8499,10 +8496,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8528,16 +8525,16 @@
         <v>228</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>81</v>
@@ -8586,7 +8583,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8601,10 +8598,10 @@
         <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>81</v>
@@ -8618,10 +8615,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8644,19 +8641,19 @@
         <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="N59" t="s" s="2">
+      <c r="O59" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>81</v>
@@ -8705,7 +8702,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8720,7 +8717,7 @@
         <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>167</v>
@@ -8737,10 +8734,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8852,10 +8849,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8969,14 +8966,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8998,10 +8995,10 @@
         <v>135</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>138</v>
@@ -9056,7 +9053,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9088,10 +9085,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9114,16 +9111,16 @@
         <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9173,7 +9170,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>89</v>
@@ -9197,7 +9194,7 @@
         <v>81</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>81</v>
@@ -9205,10 +9202,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9234,10 +9231,10 @@
         <v>109</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9267,11 +9264,11 @@
         <v>181</v>
       </c>
       <c r="Y64" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="Z64" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="Z64" t="s" s="2">
-        <v>449</v>
-      </c>
       <c r="AA64" t="s" s="2">
         <v>81</v>
       </c>
@@ -9288,7 +9285,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>89</v>
@@ -9303,7 +9300,7 @@
         <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>167</v>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.6</t>
+    <t>0.6.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.7</t>
+    <t>0.8.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.0</t>
+    <t>0.8.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.1</t>
+    <t>0.8.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.2</t>
+    <t>0.8.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.3</t>
+    <t>0.8.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.4</t>
+    <t>0.8.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$80</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2426" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="551">
   <si>
     <t>Property</t>
   </si>
@@ -981,6 +981,318 @@
   </si>
   <si>
     <t>PID-11</t>
+  </si>
+  <si>
+    <t>Patient.address.id</t>
+  </si>
+  <si>
+    <t>Patient.address.extension</t>
+  </si>
+  <si>
+    <t>Patient.address.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | billing - purpose of this address</t>
+  </si>
+  <si>
+    <t>The purpose of this address.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows an appropriate address to be chosen from a list of many.</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>The use of an address.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.use</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>XAD.7</t>
+  </si>
+  <si>
+    <t>Patient.address.type</t>
+  </si>
+  <si>
+    <t>postal | physical | both</t>
+  </si>
+  <si>
+    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
+  </si>
+  <si>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>The type of an address (physical / postal).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.type</t>
+  </si>
+  <si>
+    <t>XAD.18</t>
+  </si>
+  <si>
+    <t>Patient.address.text</t>
+  </si>
+  <si>
+    <t>Text representation of the address</t>
+  </si>
+  <si>
+    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>A renderable, unencoded form.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street, Erewhon 9132</t>
+  </si>
+  <si>
+    <t>Address.text</t>
+  </si>
+  <si>
+    <t>./formatted</t>
+  </si>
+  <si>
+    <t>XAD.1 + XAD.2 + XAD.3 + XAD.4 + XAD.5 + XAD.6</t>
+  </si>
+  <si>
+    <t>Patient.address.line</t>
+  </si>
+  <si>
+    <t>Street name, number, direction &amp; P.O. Box etc.</t>
+  </si>
+  <si>
+    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street</t>
+  </si>
+  <si>
+    <t>Address.line</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = AL]</t>
+  </si>
+  <si>
+    <t>XAD.1 + XAD.2 (note: XAD.1 and XAD.2 have different meanings for a company address than for a person address)</t>
+  </si>
+  <si>
+    <t>Patient.address.city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municpality
+</t>
+  </si>
+  <si>
+    <t>Name of city, town etc.</t>
+  </si>
+  <si>
+    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
+  </si>
+  <si>
+    <t>Erewhon</t>
+  </si>
+  <si>
+    <t>Address.city</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CTY]</t>
+  </si>
+  <si>
+    <t>XAD.3</t>
+  </si>
+  <si>
+    <t>Patient.address.district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">County
+</t>
+  </si>
+  <si>
+    <t>District name (aka county)</t>
+  </si>
+  <si>
+    <t>The name of the administrative area (county).</t>
+  </si>
+  <si>
+    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Address.district</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT | CPA]</t>
+  </si>
+  <si>
+    <t>XAD.9</t>
+  </si>
+  <si>
+    <t>Patient.address.district.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>Patient.address.district.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Patient.address.district.extension:municipalitycode</t>
+  </si>
+  <si>
+    <t>municipalitycode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/lmdi/StructureDefinition/no-basis-municipalitycode}
+</t>
+  </si>
+  <si>
+    <t>Coded value for municipality/county Norwegian kommune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Patient.address.district.value</t>
+  </si>
+  <si>
+    <t>Primitive value for string</t>
+  </si>
+  <si>
+    <t>The actual value</t>
+  </si>
+  <si>
+    <t>1048576</t>
+  </si>
+  <si>
+    <t>string.value</t>
+  </si>
+  <si>
+    <t>Patient.address.state</t>
+  </si>
+  <si>
+    <t>Province
+Territory</t>
+  </si>
+  <si>
+    <t>Sub-unit of country (abbreviations ok)</t>
+  </si>
+  <si>
+    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
+  </si>
+  <si>
+    <t>Address.state</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = STA]</t>
+  </si>
+  <si>
+    <t>XAD.4</t>
+  </si>
+  <si>
+    <t>Patient.address.postalCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zip
+</t>
+  </si>
+  <si>
+    <t>Postal code for area</t>
+  </si>
+  <si>
+    <t>A postal code designating a region defined by the postal service.</t>
+  </si>
+  <si>
+    <t>9132</t>
+  </si>
+  <si>
+    <t>Address.postalCode</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = ZIP]</t>
+  </si>
+  <si>
+    <t>XAD.5</t>
+  </si>
+  <si>
+    <t>Patient.address.country</t>
+  </si>
+  <si>
+    <t>Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
+  </si>
+  <si>
+    <t>Country - a nation as commonly understood or generally accepted.</t>
+  </si>
+  <si>
+    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
+  </si>
+  <si>
+    <t>Address.country</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT]</t>
+  </si>
+  <si>
+    <t>XAD.6</t>
+  </si>
+  <si>
+    <t>Patient.address.period</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use.</t>
+  </si>
+  <si>
+    <t>Allows addresses to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
+  &lt;start value="2010-03-23"/&gt;
+  &lt;end value="2010-07-01"/&gt;
+&lt;/valuePeriod&gt;</t>
+  </si>
+  <si>
+    <t>Address.period</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
+    <t>XAD.12 / XAD.13 + XAD.14</t>
   </si>
   <si>
     <t>Patient.maritalStatus</t>
@@ -1734,7 +2046,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO64"/>
+  <dimension ref="A1:AO80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1743,9 +2055,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.47265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.09375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="16.7109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1753,7 +2065,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="50.07421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.5078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1762,7 +2074,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
@@ -1781,7 +2093,7 @@
     <col min="37" max="37" width="156.828125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="40.8125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="39.37890625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="107.3984375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="40.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -5925,7 +6237,7 @@
         <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>81</v>
@@ -6053,18 +6365,16 @@
         <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>312</v>
+        <v>164</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>313</v>
+        <v>165</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>314</v>
-      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>81</v>
       </c>
@@ -6088,13 +6398,13 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>315</v>
+        <v>81</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>316</v>
+        <v>81</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
@@ -6112,7 +6422,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>311</v>
+        <v>166</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6124,19 +6434,19 @@
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>317</v>
+        <v>167</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>318</v>
+        <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>319</v>
+        <v>81</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>81</v>
@@ -6144,21 +6454,21 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>81</v>
@@ -6170,20 +6480,18 @@
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>321</v>
+        <v>135</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>322</v>
+        <v>136</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>323</v>
+        <v>170</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>81</v>
       </c>
@@ -6219,43 +6527,43 @@
         <v>81</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>320</v>
+        <v>174</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>326</v>
+        <v>167</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>327</v>
+        <v>81</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>81</v>
@@ -6263,10 +6571,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6277,31 +6585,31 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>329</v>
+        <v>109</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -6314,7 +6622,7 @@
         <v>81</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>81</v>
+        <v>318</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>81</v>
@@ -6326,13 +6634,13 @@
         <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>81</v>
+        <v>320</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>81</v>
@@ -6350,13 +6658,13 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>81</v>
@@ -6365,16 +6673,16 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>81</v>
@@ -6382,10 +6690,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6396,7 +6704,7 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>81</v>
@@ -6405,23 +6713,21 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>337</v>
+        <v>109</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>81</v>
       </c>
@@ -6433,7 +6739,7 @@
         <v>81</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>81</v>
@@ -6445,13 +6751,13 @@
         <v>81</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>81</v>
+        <v>329</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>81</v>
+        <v>330</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>81</v>
@@ -6469,31 +6775,31 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>342</v>
+        <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>81</v>
@@ -6501,10 +6807,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6524,19 +6830,23 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>163</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>164</v>
+        <v>334</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
       </c>
@@ -6548,7 +6858,7 @@
         <v>81</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>81</v>
+        <v>338</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>81</v>
@@ -6584,7 +6894,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>166</v>
+        <v>339</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6596,10 +6906,10 @@
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>167</v>
+        <v>340</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>81</v>
@@ -6608,7 +6918,7 @@
         <v>81</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>81</v>
+        <v>341</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>81</v>
@@ -6616,14 +6926,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6639,20 +6949,18 @@
         <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>136</v>
+        <v>343</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -6665,7 +6973,7 @@
         <v>81</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>81</v>
+        <v>345</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>81</v>
@@ -6701,7 +7009,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>174</v>
+        <v>346</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6713,10 +7021,10 @@
         <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>167</v>
+        <v>347</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>81</v>
@@ -6725,7 +7033,7 @@
         <v>81</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>81</v>
@@ -6733,46 +7041,42 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>81</v>
       </c>
@@ -6784,7 +7088,7 @@
         <v>81</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>81</v>
+        <v>353</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>81</v>
@@ -6820,22 +7124,22 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>132</v>
+        <v>355</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>81</v>
@@ -6844,7 +7148,7 @@
         <v>81</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>81</v>
+        <v>356</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>81</v>
@@ -6852,21 +7156,21 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>81</v>
+        <v>358</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>81</v>
@@ -6875,21 +7179,21 @@
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>81</v>
       </c>
@@ -6901,7 +7205,7 @@
         <v>81</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>81</v>
+        <v>362</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>81</v>
@@ -6913,13 +7217,13 @@
         <v>81</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>355</v>
+        <v>81</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>356</v>
+        <v>81</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>81</v>
@@ -6937,13 +7241,13 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>81</v>
@@ -6952,16 +7256,16 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>81</v>
@@ -6969,10 +7273,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6995,18 +7299,16 @@
         <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>258</v>
+        <v>163</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>362</v>
-      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>81</v>
       </c>
@@ -7054,7 +7356,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>359</v>
+        <v>166</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7066,19 +7368,19 @@
         <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>263</v>
+        <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>363</v>
+        <v>81</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
@@ -7086,10 +7388,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7112,20 +7414,16 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>267</v>
+        <v>135</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>81</v>
       </c>
@@ -7161,19 +7459,17 @@
         <v>81</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="AC46" s="2"/>
       <c r="AD46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>364</v>
+        <v>174</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7185,19 +7481,19 @@
         <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>272</v>
+        <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>368</v>
+        <v>81</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>81</v>
@@ -7205,12 +7501,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="D47" t="s" s="2">
         <v>81</v>
       </c>
@@ -7231,18 +7529,16 @@
         <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>303</v>
+        <v>374</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>372</v>
-      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>81</v>
       </c>
@@ -7290,31 +7586,31 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>369</v>
+        <v>174</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>81</v>
+        <v>376</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>308</v>
+        <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>373</v>
+        <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>81</v>
@@ -7322,10 +7618,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7348,18 +7644,16 @@
         <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>377</v>
-      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>81</v>
       </c>
@@ -7380,16 +7674,16 @@
         <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>81</v>
+        <v>380</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>280</v>
+        <v>81</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>281</v>
+        <v>81</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>81</v>
@@ -7407,7 +7701,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7419,19 +7713,19 @@
         <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>378</v>
+        <v>81</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>81</v>
@@ -7439,14 +7733,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>81</v>
+        <v>383</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7462,21 +7756,19 @@
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>228</v>
+        <v>163</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>382</v>
-      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>81</v>
       </c>
@@ -7524,7 +7816,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7533,22 +7825,22 @@
         <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>383</v>
+        <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>81</v>
@@ -7556,14 +7848,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>81</v>
+        <v>390</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7579,16 +7871,16 @@
         <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7603,7 +7895,7 @@
         <v>81</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>81</v>
+        <v>393</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>81</v>
@@ -7639,7 +7931,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7654,16 +7946,16 @@
         <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>81</v>
@@ -7671,10 +7963,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7685,7 +7977,7 @@
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>81</v>
@@ -7694,23 +7986,21 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>337</v>
+        <v>163</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>81</v>
       </c>
@@ -7758,13 +8048,13 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>81</v>
@@ -7773,16 +8063,16 @@
         <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>396</v>
+        <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>81</v>
+        <v>403</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>81</v>
@@ -7790,10 +8080,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7813,19 +8103,21 @@
         <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>164</v>
+        <v>405</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>165</v>
+        <v>406</v>
       </c>
       <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>81</v>
       </c>
@@ -7837,7 +8129,7 @@
         <v>81</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>81</v>
+        <v>408</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>81</v>
@@ -7873,7 +8165,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>166</v>
+        <v>409</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7885,10 +8177,10 @@
         <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>167</v>
+        <v>410</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>81</v>
@@ -7897,7 +8189,7 @@
         <v>81</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>81</v>
+        <v>411</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>81</v>
@@ -7905,21 +8197,21 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>81</v>
@@ -7931,18 +8223,18 @@
         <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>136</v>
+        <v>413</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>81</v>
       </c>
@@ -7966,13 +8258,13 @@
         <v>81</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>81</v>
+        <v>416</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>81</v>
+        <v>417</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>81</v>
@@ -7990,31 +8282,31 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>174</v>
+        <v>412</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>167</v>
+        <v>418</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>81</v>
+        <v>419</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>81</v>
+        <v>420</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>81</v>
@@ -8022,45 +8314,45 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>347</v>
+        <v>81</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>135</v>
+        <v>422</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>348</v>
+        <v>423</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>349</v>
+        <v>424</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>138</v>
+        <v>425</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>144</v>
+        <v>426</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -8109,31 +8401,31 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>350</v>
+        <v>421</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>132</v>
+        <v>427</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>81</v>
+        <v>428</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>81</v>
@@ -8141,10 +8433,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>400</v>
+        <v>429</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>400</v>
+        <v>429</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8152,10 +8444,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>81</v>
@@ -8167,19 +8459,19 @@
         <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>188</v>
+        <v>430</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>402</v>
+        <v>432</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>403</v>
+        <v>433</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>404</v>
+        <v>434</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -8204,13 +8496,13 @@
         <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>81</v>
@@ -8228,13 +8520,13 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>400</v>
+        <v>429</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>81</v>
@@ -8243,16 +8535,16 @@
         <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>405</v>
+        <v>435</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>406</v>
+        <v>167</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>407</v>
+        <v>436</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>81</v>
@@ -8260,10 +8552,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>408</v>
+        <v>437</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>408</v>
+        <v>437</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8274,7 +8566,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>81</v>
@@ -8286,19 +8578,19 @@
         <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>249</v>
+        <v>438</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>409</v>
+        <v>439</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>411</v>
+        <v>441</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>412</v>
+        <v>442</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>81</v>
@@ -8347,31 +8639,31 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>408</v>
+        <v>437</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>101</v>
+        <v>443</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>413</v>
+        <v>444</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>414</v>
+        <v>167</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>415</v>
+        <v>81</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>81</v>
@@ -8379,21 +8671,21 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>416</v>
+        <v>445</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>416</v>
+        <v>445</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>417</v>
+        <v>81</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>81</v>
@@ -8405,17 +8697,15 @@
         <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>418</v>
+        <v>163</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>419</v>
+        <v>164</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>81</v>
@@ -8464,31 +8754,31 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>416</v>
+        <v>166</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>422</v>
+        <v>167</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>423</v>
+        <v>81</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>81</v>
@@ -8496,21 +8786,21 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>81</v>
@@ -8519,23 +8809,21 @@
         <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>228</v>
+        <v>135</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>425</v>
+        <v>136</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>426</v>
+        <v>170</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>81</v>
       </c>
@@ -8583,25 +8871,25 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>424</v>
+        <v>174</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>384</v>
+        <v>167</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>429</v>
+        <v>81</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>81</v>
@@ -8615,14 +8903,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>81</v>
+        <v>448</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8641,19 +8929,19 @@
         <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>337</v>
+        <v>135</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>433</v>
+        <v>138</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>434</v>
+        <v>144</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>81</v>
@@ -8702,7 +8990,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8714,13 +9002,13 @@
         <v>81</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>435</v>
+        <v>132</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>81</v>
@@ -8734,10 +9022,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8748,7 +9036,7 @@
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>81</v>
@@ -8760,16 +9048,18 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>164</v>
+        <v>453</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>165</v>
+        <v>454</v>
       </c>
       <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>81</v>
       </c>
@@ -8793,13 +9083,13 @@
         <v>81</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>81</v>
+        <v>456</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>81</v>
+        <v>457</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>81</v>
@@ -8817,31 +9107,31 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>166</v>
+        <v>452</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AL60" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AM60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>81</v>
@@ -8849,21 +9139,21 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>81</v>
@@ -8875,18 +9165,18 @@
         <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>135</v>
+        <v>258</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>136</v>
+        <v>461</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>81</v>
       </c>
@@ -8934,31 +9224,31 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>174</v>
+        <v>460</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AL61" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AM61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>81</v>
+        <v>464</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>81</v>
@@ -8966,14 +9256,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>438</v>
+        <v>465</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>438</v>
+        <v>465</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>347</v>
+        <v>81</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8986,25 +9276,25 @@
         <v>81</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>135</v>
+        <v>267</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>348</v>
+        <v>466</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>349</v>
+        <v>467</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>138</v>
+        <v>468</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>144</v>
+        <v>271</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>81</v>
@@ -9053,7 +9343,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>350</v>
+        <v>465</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9065,19 +9355,19 @@
         <v>81</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>132</v>
+        <v>272</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>81</v>
+        <v>469</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>81</v>
@@ -9085,10 +9375,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>439</v>
+        <v>470</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>439</v>
+        <v>470</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9096,7 +9386,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>89</v>
@@ -9108,21 +9398,21 @@
         <v>81</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>440</v>
+        <v>303</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>441</v>
+        <v>471</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>81</v>
       </c>
@@ -9170,10 +9460,10 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>439</v>
+        <v>470</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>89</v>
@@ -9185,7 +9475,7 @@
         <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>153</v>
+        <v>308</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>167</v>
@@ -9194,7 +9484,7 @@
         <v>81</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>444</v>
+        <v>474</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>81</v>
@@ -9202,10 +9492,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>445</v>
+        <v>475</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>445</v>
+        <v>475</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9213,7 +9503,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>89</v>
@@ -9225,19 +9515,21 @@
         <v>81</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>109</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>81</v>
       </c>
@@ -9264,10 +9556,10 @@
         <v>181</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>447</v>
+        <v>280</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>448</v>
+        <v>281</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>81</v>
@@ -9285,10 +9577,10 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>445</v>
+        <v>475</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>89</v>
@@ -9300,7 +9592,7 @@
         <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>449</v>
+        <v>282</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>167</v>
@@ -9309,14 +9601,1892 @@
         <v>81</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>81</v>
+        <v>479</v>
       </c>
       <c r="AO64" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="P70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="P71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="P72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="P74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="P75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="P78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO80" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO64">
+  <autoFilter ref="A1:AO80">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9326,7 +11496,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI63">
+  <conditionalFormatting sqref="A2:AI79">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.5</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -1031,7 +1031,7 @@
     <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
   </si>
   <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t>both</t>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="552">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-12</t>
+    <t>2025-01-08</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -878,10 +878,10 @@
     <t>Kjønn</t>
   </si>
   <si>
-    <t>Pasientens kjønn. Skal oppgis sammen med fødselsdato hvis det ikke finnes pasient-ID.</t>
-  </si>
-  <si>
-    <t>Inkluderer helst hvis opplysningen finnes.</t>
+    <t>Pasientens kjønn.</t>
+  </si>
+  <si>
+    <t>The gender might not match the biological sex as determined by genetics or the individual's preferred identification. Note that for both humans and particularly animals, there are other legitimate possibilities than male and female, though the vast majority of systems and contexts only support male and female.  Systems providing decision support or enforcing business rules should ideally do this on the basis of Observations dealing with the specific sex or gender aspect of interest (anatomical, chromosomal, social, etc.)  However, because these observations are infrequently recorded, defaulting to the administrative gender is common practice.  Where such defaulting occurs, rule enforcement should allow for the variation between administrative and biological, chromosomal and other gender aspects.  For example, an alert about a hysterectomy on a male should be handled as a warning or overridable error, not a "hard" error.  See the Patient Gender and Sex section for additional information about communicating patient gender and sex.</t>
   </si>
   <si>
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
@@ -912,7 +912,10 @@
     <t>Fødselsdato</t>
   </si>
   <si>
-    <t>Pasientens fødselsdato. Skal oppgis sammen med kjønn hvis det ikke finnes pasient-ID.</t>
+    <t>Pasientens fødselsdato.</t>
+  </si>
+  <si>
+    <t>At least an estimated year should be provided as a guess if the real DOB is unknown  There is a standard extension "patient-birthTime" available that should be used where Time is required (such as in maternity/infant care systems).</t>
   </si>
   <si>
     <t>Age of the individual drives many clinical processes.</t>
@@ -1178,7 +1181,7 @@
 </t>
   </si>
   <si>
-    <t>Coded value for municipality/county Norwegian kommune</t>
+    <t>Coded value for municipality Norwegian kommune</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -2819,7 +2822,7 @@
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>81</v>
@@ -5518,7 +5521,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>81</v>
@@ -5639,7 +5642,7 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>81</v>
@@ -5758,7 +5761,7 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>81</v>
@@ -6017,10 +6020,10 @@
         <v>288</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -6084,27 +6087,27 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6115,7 +6118,7 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>81</v>
@@ -6127,19 +6130,19 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -6188,7 +6191,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6203,7 +6206,7 @@
         <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>167</v>
@@ -6212,7 +6215,7 @@
         <v>81</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>81</v>
@@ -6220,10 +6223,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6246,19 +6249,19 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -6307,7 +6310,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6322,16 +6325,16 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>81</v>
@@ -6339,10 +6342,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6454,10 +6457,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6571,10 +6574,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6600,16 +6603,16 @@
         <v>109</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -6622,7 +6625,7 @@
         <v>81</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>81</v>
@@ -6637,10 +6640,10 @@
         <v>181</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>81</v>
@@ -6658,7 +6661,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6673,7 +6676,7 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>81</v>
@@ -6682,7 +6685,7 @@
         <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>81</v>
@@ -6690,10 +6693,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6719,13 +6722,13 @@
         <v>109</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6739,7 +6742,7 @@
         <v>81</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>81</v>
@@ -6754,10 +6757,10 @@
         <v>181</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>81</v>
@@ -6775,7 +6778,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6790,7 +6793,7 @@
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>81</v>
@@ -6799,7 +6802,7 @@
         <v>81</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>81</v>
@@ -6807,10 +6810,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6821,7 +6824,7 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>81</v>
@@ -6836,16 +6839,16 @@
         <v>163</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6858,7 +6861,7 @@
         <v>81</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>81</v>
@@ -6894,7 +6897,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6909,7 +6912,7 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>81</v>
@@ -6918,7 +6921,7 @@
         <v>81</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>81</v>
@@ -6926,10 +6929,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6940,7 +6943,7 @@
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>81</v>
@@ -6955,10 +6958,10 @@
         <v>163</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6973,7 +6976,7 @@
         <v>81</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>81</v>
@@ -7009,7 +7012,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7024,7 +7027,7 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>81</v>
@@ -7033,7 +7036,7 @@
         <v>81</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>81</v>
@@ -7041,21 +7044,21 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>81</v>
@@ -7070,10 +7073,10 @@
         <v>163</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7088,7 +7091,7 @@
         <v>81</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>81</v>
@@ -7124,7 +7127,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7139,7 +7142,7 @@
         <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>81</v>
@@ -7148,7 +7151,7 @@
         <v>81</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>81</v>
@@ -7156,14 +7159,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7185,13 +7188,13 @@
         <v>163</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7205,7 +7208,7 @@
         <v>81</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>81</v>
@@ -7241,7 +7244,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7256,7 +7259,7 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>81</v>
@@ -7265,7 +7268,7 @@
         <v>81</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>81</v>
@@ -7273,10 +7276,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7302,10 +7305,10 @@
         <v>163</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7388,10 +7391,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7417,10 +7420,10 @@
         <v>135</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7501,13 +7504,13 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>81</v>
@@ -7529,13 +7532,13 @@
         <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7595,7 +7598,7 @@
         <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>140</v>
@@ -7618,10 +7621,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7647,10 +7650,10 @@
         <v>163</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7674,7 +7677,7 @@
         <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="X48" t="s" s="2">
         <v>81</v>
@@ -7701,7 +7704,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7733,14 +7736,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7762,10 +7765,10 @@
         <v>163</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7816,7 +7819,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7831,7 +7834,7 @@
         <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>81</v>
@@ -7840,7 +7843,7 @@
         <v>81</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>81</v>
@@ -7848,14 +7851,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7877,10 +7880,10 @@
         <v>163</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7895,7 +7898,7 @@
         <v>81</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>81</v>
@@ -7931,7 +7934,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7946,7 +7949,7 @@
         <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>81</v>
@@ -7955,7 +7958,7 @@
         <v>81</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>81</v>
@@ -7963,10 +7966,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7992,13 +7995,13 @@
         <v>163</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8048,7 +8051,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8063,7 +8066,7 @@
         <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>81</v>
@@ -8072,7 +8075,7 @@
         <v>81</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>81</v>
@@ -8080,10 +8083,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8109,14 +8112,14 @@
         <v>220</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -8129,7 +8132,7 @@
         <v>81</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>81</v>
@@ -8165,7 +8168,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8180,7 +8183,7 @@
         <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>81</v>
@@ -8189,7 +8192,7 @@
         <v>81</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>81</v>
@@ -8197,10 +8200,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8211,7 +8214,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>81</v>
@@ -8226,14 +8229,14 @@
         <v>188</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>81</v>
@@ -8261,10 +8264,10 @@
         <v>193</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>81</v>
@@ -8282,7 +8285,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8297,16 +8300,16 @@
         <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>81</v>
@@ -8314,10 +8317,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8328,7 +8331,7 @@
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>81</v>
@@ -8340,19 +8343,19 @@
         <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -8401,7 +8404,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8416,7 +8419,7 @@
         <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>167</v>
@@ -8425,7 +8428,7 @@
         <v>81</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>81</v>
@@ -8433,10 +8436,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8447,7 +8450,7 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>81</v>
@@ -8459,19 +8462,19 @@
         <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -8520,7 +8523,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8535,7 +8538,7 @@
         <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>167</v>
@@ -8544,7 +8547,7 @@
         <v>81</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>81</v>
@@ -8552,10 +8555,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8566,7 +8569,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>81</v>
@@ -8578,19 +8581,19 @@
         <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>81</v>
@@ -8639,7 +8642,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8651,10 +8654,10 @@
         <v>81</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>167</v>
@@ -8671,10 +8674,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8786,10 +8789,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8903,14 +8906,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8932,10 +8935,10 @@
         <v>135</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>138</v>
@@ -8990,7 +8993,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9022,10 +9025,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9051,14 +9054,14 @@
         <v>188</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>81</v>
@@ -9086,10 +9089,10 @@
         <v>193</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>81</v>
@@ -9107,7 +9110,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9122,7 +9125,7 @@
         <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>167</v>
@@ -9131,7 +9134,7 @@
         <v>81</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>81</v>
@@ -9139,10 +9142,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9168,14 +9171,14 @@
         <v>258</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>81</v>
@@ -9224,7 +9227,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9248,7 +9251,7 @@
         <v>81</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>81</v>
@@ -9256,10 +9259,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9285,13 +9288,13 @@
         <v>267</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>271</v>
@@ -9343,7 +9346,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9367,7 +9370,7 @@
         <v>81</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>81</v>
@@ -9375,10 +9378,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9401,17 +9404,17 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>81</v>
@@ -9460,7 +9463,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9475,7 +9478,7 @@
         <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>167</v>
@@ -9484,7 +9487,7 @@
         <v>81</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>81</v>
@@ -9492,10 +9495,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9521,14 +9524,14 @@
         <v>109</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>81</v>
@@ -9577,7 +9580,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9601,7 +9604,7 @@
         <v>81</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>81</v>
@@ -9609,10 +9612,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9638,14 +9641,14 @@
         <v>228</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>81</v>
@@ -9694,7 +9697,7 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9703,13 +9706,13 @@
         <v>89</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>167</v>
@@ -9718,7 +9721,7 @@
         <v>81</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>81</v>
@@ -9726,10 +9729,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9755,10 +9758,10 @@
         <v>220</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9809,7 +9812,7 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9824,7 +9827,7 @@
         <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>167</v>
@@ -9841,10 +9844,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9855,7 +9858,7 @@
         <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>81</v>
@@ -9867,19 +9870,19 @@
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>81</v>
@@ -9928,7 +9931,7 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9943,10 +9946,10 @@
         <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>81</v>
@@ -9960,10 +9963,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10075,10 +10078,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10192,14 +10195,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10221,10 +10224,10 @@
         <v>135</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N70" t="s" s="2">
         <v>138</v>
@@ -10279,7 +10282,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10311,10 +10314,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10340,16 +10343,16 @@
         <v>188</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>81</v>
@@ -10398,7 +10401,7 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>89</v>
@@ -10413,16 +10416,16 @@
         <v>101</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>81</v>
@@ -10430,10 +10433,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10459,16 +10462,16 @@
         <v>249</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>81</v>
@@ -10517,7 +10520,7 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10532,16 +10535,16 @@
         <v>101</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>81</v>
@@ -10549,21 +10552,21 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>81</v>
@@ -10575,16 +10578,16 @@
         <v>81</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10634,7 +10637,7 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10649,7 +10652,7 @@
         <v>101</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>167</v>
@@ -10658,7 +10661,7 @@
         <v>81</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>81</v>
@@ -10666,10 +10669,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10680,7 +10683,7 @@
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>81</v>
@@ -10695,16 +10698,16 @@
         <v>228</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>81</v>
@@ -10753,7 +10756,7 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10768,10 +10771,10 @@
         <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>81</v>
@@ -10785,10 +10788,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10799,7 +10802,7 @@
         <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>81</v>
@@ -10811,19 +10814,19 @@
         <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>81</v>
@@ -10872,7 +10875,7 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -10887,7 +10890,7 @@
         <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>167</v>
@@ -10904,10 +10907,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11019,10 +11022,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11136,14 +11139,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11165,10 +11168,10 @@
         <v>135</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>138</v>
@@ -11223,7 +11226,7 @@
         <v>81</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11255,10 +11258,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11281,16 +11284,16 @@
         <v>90</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11340,7 +11343,7 @@
         <v>81</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>89</v>
@@ -11364,7 +11367,7 @@
         <v>81</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>81</v>
@@ -11372,10 +11375,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11401,10 +11404,10 @@
         <v>109</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11434,10 +11437,10 @@
         <v>181</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>81</v>
@@ -11455,7 +11458,7 @@
         <v>81</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>89</v>
@@ -11470,7 +11473,7 @@
         <v>101</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>167</v>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.2</t>
+    <t>0.9.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -1177,7 +1177,7 @@
     <t>municipalitycode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/lmdi/StructureDefinition/noBasisMunicipalitycode}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/lmdi/StructureDefinition/no-basis-municipalitycode}
 </t>
   </si>
   <si>
@@ -2076,7 +2076,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.07421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.5078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -1177,7 +1177,7 @@
     <t>municipalitycode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/lmdi/StructureDefinition/no-basis-municipalitycode}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-municipalitycode}
 </t>
   </si>
   <si>
@@ -2076,7 +2076,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.5078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="73.82421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -1177,7 +1177,7 @@
     <t>municipalitycode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-municipalitycode}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/lmdi/StructureDefinition/no-basis-municipalitycode}
 </t>
   </si>
   <si>
@@ -2076,7 +2076,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="73.82421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.5078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="554">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08</t>
+    <t>2025-03-10</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Informasjon om pasienten</t>
+    <t>Pasienten som har fått rekvirert eller administrert legemiddel</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -639,7 +639,7 @@
     <t>Patient.identifier.system</t>
   </si>
   <si>
-    <t>The identification of the Fødselsnummer</t>
+    <t>Unik identifikator som representerer det norske fødselsnummersystemet</t>
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
@@ -672,7 +672,7 @@
     <t>Patient.identifier.value</t>
   </si>
   <si>
-    <t>The value that is unique</t>
+    <t>Fødselsnummeret (11 siffer)</t>
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
@@ -770,13 +770,16 @@
     <t>Patient.identifier:DNR.system</t>
   </si>
   <si>
-    <t>The identification of the D-nummer</t>
+    <t>Unik identifikator som representerer det norske d-nummersystemet</t>
   </si>
   <si>
     <t>urn:oid:2.16.578.1.12.4.1.4.2</t>
   </si>
   <si>
     <t>Patient.identifier:DNR.value</t>
+  </si>
+  <si>
+    <t>D-nummer (11 siffer)</t>
   </si>
   <si>
     <t>Patient.identifier:DNR.period</t>
@@ -995,10 +998,10 @@
     <t>Patient.address.use</t>
   </si>
   <si>
-    <t>home | work | temp | old | billing - purpose of this address</t>
-  </si>
-  <si>
-    <t>The purpose of this address.</t>
+    <t>home | temp | old</t>
+  </si>
+  <si>
+    <t>Adressetype begrenset til home, temp eller old</t>
   </si>
   <si>
     <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
@@ -1010,13 +1013,17 @@
     <t>home</t>
   </si>
   <si>
-    <t>The use of an address.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
+    <t>Tillatte verdier er home, temp eller old</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-use</t>
   </si>
   <si>
     <t>Address.use</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+address-use-constraint:Kun home, temp eller old er tillatt for address.use {address.use.empty() or address.use in ('home' | 'temp' | 'old')}</t>
   </si>
   <si>
     <t>unique(./use)</t>
@@ -1132,7 +1139,7 @@
 </t>
   </si>
   <si>
-    <t>District name (aka county)</t>
+    <t>Kommune</t>
   </si>
   <si>
     <t>The name of the administrative area (county).</t>
@@ -1181,7 +1188,7 @@
 </t>
   </si>
   <si>
-    <t>Coded value for municipality Norwegian kommune</t>
+    <t>Kodet verdi for kommune</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1210,7 +1217,7 @@
 Territory</t>
   </si>
   <si>
-    <t>Sub-unit of country (abbreviations ok)</t>
+    <t>Fylkesnavn</t>
   </si>
   <si>
     <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
@@ -5195,7 +5202,7 @@
         <v>163</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>212</v>
@@ -5283,7 +5290,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>219</v>
@@ -5398,7 +5405,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>227</v>
@@ -5515,10 +5522,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5541,70 +5548,70 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="P30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q30" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="P30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q30" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5619,13 +5626,13 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>167</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
@@ -5636,10 +5643,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5662,19 +5669,19 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5723,7 +5730,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5738,16 +5745,16 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>81</v>
@@ -5755,10 +5762,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5781,19 +5788,19 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -5842,7 +5849,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5857,16 +5864,16 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>81</v>
@@ -5874,10 +5881,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5903,16 +5910,16 @@
         <v>109</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -5940,10 +5947,10 @@
         <v>181</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>81</v>
@@ -5961,7 +5968,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5976,16 +5983,16 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>81</v>
@@ -5993,10 +6000,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6019,19 +6026,19 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -6080,7 +6087,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6095,27 +6102,27 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6138,19 +6145,19 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -6199,7 +6206,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6214,7 +6221,7 @@
         <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>167</v>
@@ -6223,7 +6230,7 @@
         <v>81</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>81</v>
@@ -6231,10 +6238,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6257,19 +6264,19 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -6318,7 +6325,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6333,16 +6340,16 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>81</v>
@@ -6350,10 +6357,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6465,10 +6472,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6582,10 +6589,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6611,16 +6618,16 @@
         <v>109</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -6633,7 +6640,7 @@
         <v>81</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>81</v>
@@ -6648,10 +6655,10 @@
         <v>181</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>81</v>
@@ -6669,7 +6676,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6681,10 +6688,10 @@
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>101</v>
+        <v>324</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>81</v>
@@ -6693,7 +6700,7 @@
         <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>81</v>
@@ -6701,10 +6708,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6730,13 +6737,13 @@
         <v>109</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6750,7 +6757,7 @@
         <v>81</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>81</v>
@@ -6765,10 +6772,10 @@
         <v>181</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>81</v>
@@ -6786,7 +6793,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6801,7 +6808,7 @@
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>81</v>
@@ -6810,7 +6817,7 @@
         <v>81</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>81</v>
@@ -6818,10 +6825,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6847,16 +6854,16 @@
         <v>163</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6869,7 +6876,7 @@
         <v>81</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>81</v>
@@ -6905,7 +6912,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6920,7 +6927,7 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>81</v>
@@ -6929,7 +6936,7 @@
         <v>81</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>81</v>
@@ -6937,10 +6944,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6966,10 +6973,10 @@
         <v>163</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6984,7 +6991,7 @@
         <v>81</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>81</v>
@@ -7020,7 +7027,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7035,7 +7042,7 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>81</v>
@@ -7044,7 +7051,7 @@
         <v>81</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>81</v>
@@ -7052,14 +7059,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7081,10 +7088,10 @@
         <v>163</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7099,7 +7106,7 @@
         <v>81</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>81</v>
@@ -7135,7 +7142,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7150,7 +7157,7 @@
         <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>81</v>
@@ -7159,7 +7166,7 @@
         <v>81</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>81</v>
@@ -7167,14 +7174,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7196,13 +7203,13 @@
         <v>163</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7216,7 +7223,7 @@
         <v>81</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>81</v>
@@ -7252,7 +7259,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7267,7 +7274,7 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>81</v>
@@ -7276,7 +7283,7 @@
         <v>81</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>81</v>
@@ -7284,10 +7291,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7313,10 +7320,10 @@
         <v>163</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7399,10 +7406,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7428,10 +7435,10 @@
         <v>135</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7512,13 +7519,13 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>81</v>
@@ -7540,13 +7547,13 @@
         <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7606,7 +7613,7 @@
         <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>140</v>
@@ -7629,10 +7636,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7643,7 +7650,7 @@
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>81</v>
@@ -7658,10 +7665,10 @@
         <v>163</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7685,7 +7692,7 @@
         <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="X48" t="s" s="2">
         <v>81</v>
@@ -7712,7 +7719,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7744,14 +7751,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7773,10 +7780,10 @@
         <v>163</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7827,7 +7834,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7842,7 +7849,7 @@
         <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>81</v>
@@ -7851,7 +7858,7 @@
         <v>81</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>81</v>
@@ -7859,21 +7866,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>81</v>
@@ -7888,10 +7895,10 @@
         <v>163</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7906,7 +7913,7 @@
         <v>81</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>81</v>
@@ -7942,7 +7949,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7957,7 +7964,7 @@
         <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>81</v>
@@ -7966,7 +7973,7 @@
         <v>81</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>81</v>
@@ -7974,10 +7981,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8003,13 +8010,13 @@
         <v>163</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8059,7 +8066,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8074,7 +8081,7 @@
         <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>81</v>
@@ -8083,7 +8090,7 @@
         <v>81</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>81</v>
@@ -8091,10 +8098,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8120,14 +8127,14 @@
         <v>220</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -8140,7 +8147,7 @@
         <v>81</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>81</v>
@@ -8176,7 +8183,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8191,7 +8198,7 @@
         <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>81</v>
@@ -8200,7 +8207,7 @@
         <v>81</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>81</v>
@@ -8208,10 +8215,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8237,14 +8244,14 @@
         <v>188</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>81</v>
@@ -8272,10 +8279,10 @@
         <v>193</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>81</v>
@@ -8293,7 +8300,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8308,16 +8315,16 @@
         <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>81</v>
@@ -8325,10 +8332,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8351,19 +8358,19 @@
         <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -8412,7 +8419,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8427,7 +8434,7 @@
         <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>167</v>
@@ -8436,7 +8443,7 @@
         <v>81</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>81</v>
@@ -8444,10 +8451,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8470,19 +8477,19 @@
         <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -8531,7 +8538,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8546,7 +8553,7 @@
         <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>167</v>
@@ -8555,7 +8562,7 @@
         <v>81</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>81</v>
@@ -8563,10 +8570,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8589,19 +8596,19 @@
         <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>81</v>
@@ -8650,7 +8657,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8662,10 +8669,10 @@
         <v>81</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>167</v>
@@ -8682,10 +8689,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8797,10 +8804,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8914,14 +8921,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8943,10 +8950,10 @@
         <v>135</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>138</v>
@@ -9001,7 +9008,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9033,10 +9040,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9062,14 +9069,14 @@
         <v>188</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>81</v>
@@ -9097,10 +9104,10 @@
         <v>193</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>81</v>
@@ -9118,7 +9125,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9133,7 +9140,7 @@
         <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>167</v>
@@ -9142,7 +9149,7 @@
         <v>81</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>81</v>
@@ -9150,10 +9157,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9176,17 +9183,17 @@
         <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>81</v>
@@ -9235,7 +9242,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9250,7 +9257,7 @@
         <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>167</v>
@@ -9259,7 +9266,7 @@
         <v>81</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>81</v>
@@ -9267,10 +9274,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9293,19 +9300,19 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>81</v>
@@ -9354,7 +9361,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9369,7 +9376,7 @@
         <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>167</v>
@@ -9378,7 +9385,7 @@
         <v>81</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>81</v>
@@ -9386,10 +9393,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9412,17 +9419,17 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>81</v>
@@ -9471,7 +9478,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9486,7 +9493,7 @@
         <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>167</v>
@@ -9495,7 +9502,7 @@
         <v>81</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>81</v>
@@ -9503,10 +9510,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9532,14 +9539,14 @@
         <v>109</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>81</v>
@@ -9567,10 +9574,10 @@
         <v>181</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>81</v>
@@ -9588,7 +9595,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9603,7 +9610,7 @@
         <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>167</v>
@@ -9612,7 +9619,7 @@
         <v>81</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>81</v>
@@ -9620,10 +9627,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9649,14 +9656,14 @@
         <v>228</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>81</v>
@@ -9705,7 +9712,7 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9714,13 +9721,13 @@
         <v>89</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>167</v>
@@ -9729,7 +9736,7 @@
         <v>81</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>81</v>
@@ -9737,10 +9744,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9766,10 +9773,10 @@
         <v>220</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9820,7 +9827,7 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9835,7 +9842,7 @@
         <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>167</v>
@@ -9852,10 +9859,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9878,19 +9885,19 @@
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>81</v>
@@ -9939,7 +9946,7 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9954,10 +9961,10 @@
         <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>81</v>
@@ -9971,10 +9978,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10086,10 +10093,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10203,14 +10210,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10232,10 +10239,10 @@
         <v>135</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="N70" t="s" s="2">
         <v>138</v>
@@ -10290,7 +10297,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10322,10 +10329,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10351,16 +10358,16 @@
         <v>188</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>81</v>
@@ -10409,7 +10416,7 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>89</v>
@@ -10424,16 +10431,16 @@
         <v>101</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>81</v>
@@ -10441,10 +10448,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10467,19 +10474,19 @@
         <v>81</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>81</v>
@@ -10528,7 +10535,7 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10543,16 +10550,16 @@
         <v>101</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>81</v>
@@ -10560,14 +10567,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10586,16 +10593,16 @@
         <v>81</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10645,7 +10652,7 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10660,7 +10667,7 @@
         <v>101</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>167</v>
@@ -10669,7 +10676,7 @@
         <v>81</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>81</v>
@@ -10677,10 +10684,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10706,16 +10713,16 @@
         <v>228</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>81</v>
@@ -10764,7 +10771,7 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10779,10 +10786,10 @@
         <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>81</v>
@@ -10796,10 +10803,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10822,19 +10829,19 @@
         <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>81</v>
@@ -10883,7 +10890,7 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -10898,7 +10905,7 @@
         <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>167</v>
@@ -10915,10 +10922,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11030,10 +11037,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11147,14 +11154,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11176,10 +11183,10 @@
         <v>135</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>138</v>
@@ -11234,7 +11241,7 @@
         <v>81</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11266,10 +11273,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11292,16 +11299,16 @@
         <v>90</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11351,7 +11358,7 @@
         <v>81</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>89</v>
@@ -11375,7 +11382,7 @@
         <v>81</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>81</v>
@@ -11383,10 +11390,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11412,10 +11419,10 @@
         <v>109</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11445,28 +11452,28 @@
         <v>181</v>
       </c>
       <c r="Y80" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF80" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>89</v>
@@ -11481,7 +11488,7 @@
         <v>101</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>167</v>
